--- a/src/main/resources/LessAir2.xlsx
+++ b/src/main/resources/LessAir2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11385"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,34 +35,10 @@
     <t>Time</t>
   </si>
   <si>
-    <t>CO(GT)</t>
-  </si>
-  <si>
-    <t>PT08.S1(CO)</t>
-  </si>
-  <si>
-    <t>NMHC(GT)</t>
-  </si>
-  <si>
     <t>C6H6(GT)</t>
   </si>
   <si>
-    <t>PT08.S2(NMHC)</t>
-  </si>
-  <si>
-    <t>NOx(GT)</t>
-  </si>
-  <si>
-    <t>PT08.S3(NOx)</t>
-  </si>
-  <si>
     <t>NO2(GT)</t>
-  </si>
-  <si>
-    <t>PT08.S4(NO2)</t>
-  </si>
-  <si>
-    <t>PT08.S5(O3)</t>
   </si>
   <si>
     <t>T</t>
@@ -72,6 +48,38 @@
   </si>
   <si>
     <t>AH</t>
+  </si>
+  <si>
+    <t>CO(GT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT08.S1(CO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT08.S2(NMHC)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT08.S3(NOx)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT08.S4(NO2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT08.S5(O3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMHC(GT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOx(GT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,7 +148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,28 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -549,16 +549,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O828"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N545" sqref="N545"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="P289" sqref="P289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="14.82421875" customWidth="1"/>
+    <col min="3" max="3" width="8.6953125" customWidth="1"/>
+    <col min="5" max="5" width="8.6953125" customWidth="1"/>
+    <col min="6" max="6" width="8.6953125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6953125" customWidth="1"/>
+    <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.6">
@@ -569,46 +573,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A2" s="7">
         <v>38056</v>
       </c>
@@ -655,7 +659,7 @@
         <v>0.75775382512936063</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A3" s="7">
         <v>38056</v>
       </c>
@@ -702,7 +706,7 @@
         <v>0.72548744924246744</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A4" s="7">
         <v>38056</v>
       </c>
@@ -749,7 +753,7 @@
         <v>0.75023906739819535</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A5" s="7">
         <v>38056</v>
       </c>
@@ -796,7 +800,7 @@
         <v>0.78671253308592526</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A6" s="14">
         <v>38056</v>
       </c>
@@ -843,7 +847,7 @@
         <v>0.78879423186675934</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A7" s="7">
         <v>38056</v>
       </c>
@@ -890,7 +894,7 @@
         <v>0.78477166433974477</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A8" s="7">
         <v>38057</v>
       </c>
@@ -937,7 +941,7 @@
         <v>0.76031193928432894</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A9" s="7">
         <v>38057</v>
       </c>
@@ -984,7 +988,7 @@
         <v>0.77023845782304512</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A10" s="7">
         <v>38057</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>0.76481872568612008</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A11" s="7">
         <v>38057</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>0.7365596001806396</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A12" s="7">
         <v>38057</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>0.73529508302472812</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A13" s="30">
         <v>38057</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>0.74173616285632749</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A14" s="7">
         <v>38057</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>0.74079457573997665</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A15" s="7">
         <v>38057</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>0.76911079275790828</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A16" s="7">
         <v>38057</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>0.75518308265229039</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A17" s="7">
         <v>38057</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>0.73516077963151527</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A18" s="7">
         <v>38057</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>0.79505378851420383</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A19" s="7">
         <v>38057</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>0.83926806775027707</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A20" s="7">
         <v>38057</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>0.8735885336185425</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A21" s="7">
         <v>38057</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>0.87778444509804454</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A22" s="7">
         <v>38057</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>0.85693812794363167</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A23" s="7">
         <v>38057</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>0.81850120747534338</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A24" s="7">
         <v>38057</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>0.80654363317366595</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A25" s="7">
         <v>38057</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>0.83192114441008791</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A26" s="7">
         <v>38057</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>0.81331393536259144</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A27" s="7">
         <v>38057</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>0.74192422448925055</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A28" s="7">
         <v>38057</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>0.69048444664143993</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A29" s="7">
         <v>38057</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>0.66574436040631024</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A30" s="7">
         <v>38058</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>0.64376360963305734</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A31" s="7">
         <v>38058</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>0.6307660602738635</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A32" s="7">
         <v>38058</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>0.62759736878688033</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A33" s="7">
         <v>38058</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>0.62328232110229986</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A34" s="7">
         <v>38058</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>0.62342753921445193</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A35" s="7">
         <v>38058</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>0.63162811443895372</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A36" s="7">
         <v>38058</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>0.64993313930738794</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A37" s="7">
         <v>38058</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>0.63195013099372255</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A38" s="7">
         <v>38058</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>0.62430429421539013</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A39" s="7">
         <v>38058</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>0.61953232260573632</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A40" s="7">
         <v>38058</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>0.62616474015667956</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A41" s="7">
         <v>38058</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>0.65603061196275725</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A42" s="7">
         <v>38058</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>0.66096113950348678</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A43" s="7">
         <v>38058</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>0.66572852509119973</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A44" s="7">
         <v>38058</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>0.65490851432707231</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A45" s="7">
         <v>38058</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>0.67662650780850453</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A46" s="7">
         <v>38058</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>0.70844975981773739</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A47" s="7">
         <v>38058</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>0.74780321885089662</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A48" s="7">
         <v>38058</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>0.75362022278253038</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A49" s="7">
         <v>38058</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>0.77398000338628536</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A50" s="7">
         <v>38058</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>0.77707394254736162</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A51" s="7">
         <v>38059</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>0.75974652823594324</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A52" s="7">
         <v>38059</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>0.74227641292253643</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A53" s="7">
         <v>38059</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>0.72561537126493858</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A54" s="7">
         <v>38059</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>0.69815462047569088</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A55" s="7">
         <v>38059</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>0.68867214708388813</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A56" s="7">
         <v>38059</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>0.69319855873437153</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A57" s="7">
         <v>38059</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>0.69447547971760148</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A58" s="7">
         <v>38059</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>0.71236656119927544</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A59" s="7">
         <v>38059</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>0.73345838506407668</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A60" s="7">
         <v>38059</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>0.74509375777743292</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A61" s="7">
         <v>38059</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>0.70896357017646205</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A62" s="7">
         <v>38059</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>0.69500810475274022</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A63" s="7">
         <v>38059</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>0.71267387419449191</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A64" s="7">
         <v>38059</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>0.70420702080963504</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A65" s="7">
         <v>38059</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>0.70120325093643887</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A66" s="7">
         <v>38059</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>0.71173640384359149</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A67" s="7">
         <v>38059</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>0.74513149435854042</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A68" s="7">
         <v>38059</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>0.75691432766760891</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A69" s="7">
         <v>38059</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>0.77864065507078628</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A70" s="7">
         <v>38059</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>0.80912442857682365</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A71" s="7">
         <v>38059</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>0.80596941410722955</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A72" s="7">
         <v>38059</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>0.81933612441983583</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A73" s="7">
         <v>38060</v>
       </c>
@@ -3992,7 +3996,7 @@
         <v>0.84977172043318772</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A74" s="7">
         <v>38060</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>0.85362313267912227</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A75" s="7">
         <v>38060</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>0.85374007387939044</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A76" s="7">
         <v>38060</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>0.85327538343813192</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A77" s="7">
         <v>38060</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>0.84726362591002646</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A78" s="7">
         <v>38060</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>0.85299873029266393</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A79" s="7">
         <v>38060</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>0.8530382230087753</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A80" s="7">
         <v>38060</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>0.86271512732964628</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A81" s="7">
         <v>38060</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>0.87278162235528134</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A82" s="7">
         <v>38060</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>0.8789310942666374</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A83" s="7">
         <v>38060</v>
       </c>
@@ -4462,7 +4466,7 @@
         <v>0.84740480214144287</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A84" s="7">
         <v>38060</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>0.78119571650022268</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A85" s="7">
         <v>38060</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>0.7615918767626616</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A86" s="7">
         <v>38060</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>0.75245895456944578</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A87" s="7">
         <v>38060</v>
       </c>
@@ -4650,7 +4654,7 @@
         <v>0.75162732411886968</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A88" s="7">
         <v>38060</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>0.76961549191445133</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A89" s="7">
         <v>38060</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>0.83070613184969921</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A90" s="7">
         <v>38060</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>0.87319577055774877</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A91" s="7">
         <v>38060</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>0.92095353605759767</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A92" s="7">
         <v>38060</v>
       </c>
@@ -4885,7 +4889,7 @@
         <v>0.93199004732496482</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A93" s="7">
         <v>38060</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>0.93414721316225569</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A94" s="7">
         <v>38060</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>0.93138562249212764</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A95" s="7">
         <v>38061</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>0.91635432546830453</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A96" s="7">
         <v>38061</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>0.90944893676634664</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A97" s="7">
         <v>38061</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>0.93608570314224604</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A98" s="7">
         <v>38061</v>
       </c>
@@ -5167,7 +5171,7 @@
         <v>0.93753817693413244</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A99" s="7">
         <v>38061</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>0.94751622433819027</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A100" s="7">
         <v>38061</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>0.94009509601848695</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A101" s="7">
         <v>38061</v>
       </c>
@@ -5308,7 +5312,7 @@
         <v>0.91695469414826813</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A102" s="7">
         <v>38061</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>0.90760953604186245</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A103" s="7">
         <v>38061</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>0.89929817064673734</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A104" s="7">
         <v>38061</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>0.88005999138678703</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A105" s="7">
         <v>38061</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>0.89036851881260282</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A106" s="7">
         <v>38061</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>0.90959921956739365</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A107" s="7">
         <v>38061</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>0.87565852881249806</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A108" s="7">
         <v>38061</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>0.87359191239784295</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A109" s="7">
         <v>38061</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>0.88476171172009777</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A110" s="7">
         <v>38061</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>0.91373521110851397</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A111" s="7">
         <v>38061</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>0.95469982074734827</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A112" s="7">
         <v>38061</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>1.0086313341074233</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A113" s="7">
         <v>38061</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>1.0945180933132785</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A114" s="7">
         <v>38061</v>
       </c>
@@ -5919,7 +5923,7 @@
         <v>1.0786268914239705</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A115" s="7">
         <v>38061</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>1.0653715549625937</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A116" s="7">
         <v>38061</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>1.0579554990778919</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A117" s="7">
         <v>38062</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>1.0493724030970419</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A118" s="7">
         <v>38062</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>1.0148194658330398</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A119" s="30">
         <v>38062</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>0.98790811078164975</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A120" s="7">
         <v>38062</v>
       </c>
@@ -6201,7 +6205,7 @@
         <v>0.92828980402135763</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A121" s="7">
         <v>38062</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>0.90810712310159292</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A122" s="7">
         <v>38062</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>0.8705229495981881</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A123" s="7">
         <v>38062</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>0.87193658770656324</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A124" s="7">
         <v>38062</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>0.87426504717690978</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A125" s="7">
         <v>38062</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>0.86722546317231619</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A126" s="7">
         <v>38062</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>0.84167129582406974</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A127" s="7">
         <v>38062</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>0.82306916554526943</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A128" s="7">
         <v>38062</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>0.82638075524582089</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A129" s="7">
         <v>38062</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>0.75893696308812986</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A130" s="7">
         <v>38062</v>
       </c>
@@ -6671,7 +6675,7 @@
         <v>0.70936151302941464</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A131" s="7">
         <v>38062</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>0.70138573883363942</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A132" s="7">
         <v>38062</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>0.709825085363188</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A133" s="7">
         <v>38062</v>
       </c>
@@ -6812,7 +6816,7 @@
         <v>0.7518910408124666</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A134" s="7">
         <v>38062</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>0.87299313338556472</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A135" s="7">
         <v>38062</v>
       </c>
@@ -6906,7 +6910,7 @@
         <v>0.87038948931818905</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A136" s="7">
         <v>38062</v>
       </c>
@@ -6953,7 +6957,7 @@
         <v>0.90073073088269962</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A137" s="7">
         <v>38062</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>0.93418604502165914</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A138" s="7">
         <v>38062</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>0.92264992552722924</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A139" s="7">
         <v>38063</v>
       </c>
@@ -7094,7 +7098,7 @@
         <v>0.9271282297880028</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A140" s="7">
         <v>38063</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>0.90587528040474208</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A141" s="7">
         <v>38063</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>0.8909558056211343</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A142" s="7">
         <v>38063</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>0.80263193211594563</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A143" s="7">
         <v>38063</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>0.79784570408723521</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A144" s="7">
         <v>38063</v>
       </c>
@@ -7329,7 +7333,7 @@
         <v>0.79564555706328577</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A145" s="7">
         <v>38063</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>0.79577568679818067</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A146" s="7">
         <v>38063</v>
       </c>
@@ -7423,7 +7427,7 @@
         <v>0.80198041742849147</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A147" s="7">
         <v>38063</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>0.80482914534383732</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A148" s="7">
         <v>38063</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>0.82648621613678286</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A149" s="7">
         <v>38063</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>0.84712769047370851</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A150" s="7">
         <v>38063</v>
       </c>
@@ -7611,7 +7615,7 @@
         <v>0.82539488292779351</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A151" s="7">
         <v>38063</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>0.85033934257858956</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A152" s="7">
         <v>38063</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>0.65001774507100163</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A153" s="7">
         <v>38063</v>
       </c>
@@ -7752,7 +7756,7 @@
         <v>0.63089045446232572</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A154" s="7">
         <v>38063</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>0.5708019092283132</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A155" s="7">
         <v>38063</v>
       </c>
@@ -7846,7 +7850,7 @@
         <v>0.52366458330007593</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A156" s="7">
         <v>38063</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>0.74026061041035618</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A157" s="7">
         <v>38063</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>0.91331417682095184</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A158" s="7">
         <v>38063</v>
       </c>
@@ -7987,7 +7991,7 @@
         <v>0.92938770386964842</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A159" s="7">
         <v>38063</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>0.85583070968532104</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A160" s="7">
         <v>38063</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>0.92059875796997315</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A161" s="7">
         <v>38064</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>0.9023544874899323</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A162" s="7">
         <v>38064</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>0.89747306091082613</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A163" s="7">
         <v>38064</v>
       </c>
@@ -8222,7 +8226,7 @@
         <v>0.86864187720670294</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A164" s="7">
         <v>38064</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>0.82330245190619311</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A165" s="7">
         <v>38064</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>0.81127656280627025</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A166" s="7">
         <v>38064</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>0.80668184577091784</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A167" s="7">
         <v>38064</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>0.81169342423907476</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A168" s="7">
         <v>38064</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>0.81856992375521453</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A169" s="7">
         <v>38068</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>0.60597224028095831</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A170" s="7">
         <v>38068</v>
       </c>
@@ -8551,7 +8555,7 @@
         <v>0.6681783824059524</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A171" s="7">
         <v>38068</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>0.82639872122387126</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A172" s="7">
         <v>38068</v>
       </c>
@@ -8645,7 +8649,7 @@
         <v>0.83471525309474737</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A173" s="7">
         <v>38068</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>0.81778343524817632</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A174" s="7">
         <v>38068</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>0.8176931732751006</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A175" s="7">
         <v>38068</v>
       </c>
@@ -8786,7 +8790,7 @@
         <v>0.8230932364528829</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A176" s="7">
         <v>38068</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>0.81059457171272142</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A177" s="7">
         <v>38069</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>0.80713841292922772</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A178" s="7">
         <v>38069</v>
       </c>
@@ -8927,7 +8931,7 @@
         <v>0.81629978076826348</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A179" s="7">
         <v>38069</v>
       </c>
@@ -8974,7 +8978,7 @@
         <v>0.84436151820963878</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A180" s="7">
         <v>38069</v>
       </c>
@@ -9021,7 +9025,7 @@
         <v>0.91470067111563191</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A181" s="30">
         <v>38069</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A182" s="7">
         <v>38069</v>
       </c>
@@ -9115,7 +9119,7 @@
         <v>0.90925470370067796</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A183" s="7">
         <v>38069</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>0.91173361875391579</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A184" s="7">
         <v>38069</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>0.92318381718795306</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A185" s="7">
         <v>38069</v>
       </c>
@@ -9256,7 +9260,7 @@
         <v>0.88031105900179085</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A186" s="7">
         <v>38069</v>
       </c>
@@ -9303,7 +9307,7 @@
         <v>0.82095806929712734</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A187" s="7">
         <v>38069</v>
       </c>
@@ -9350,7 +9354,7 @@
         <v>0.82343346872295897</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A188" s="7">
         <v>38069</v>
       </c>
@@ -9397,7 +9401,7 @@
         <v>0.83509171766748969</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A189" s="7">
         <v>38069</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>0.76739160894860958</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A190" s="7">
         <v>38069</v>
       </c>
@@ -9491,7 +9495,7 @@
         <v>0.79710415643979737</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A191" s="7">
         <v>38069</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>0.85374961265140448</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A192" s="7">
         <v>38069</v>
       </c>
@@ -9585,7 +9589,7 @@
         <v>0.84651371071456682</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A193" s="7">
         <v>38069</v>
       </c>
@@ -9632,7 +9636,7 @@
         <v>0.76950915098718986</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A194" s="7">
         <v>38069</v>
       </c>
@@ -9679,7 +9683,7 @@
         <v>0.78220861290706367</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A195" s="7">
         <v>38069</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>0.7866766040131471</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A196" s="7">
         <v>38069</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>0.78814566662897578</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A197" s="7">
         <v>38069</v>
       </c>
@@ -9820,7 +9824,7 @@
         <v>0.76639065893836944</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A198" s="7">
         <v>38069</v>
       </c>
@@ -9867,7 +9871,7 @@
         <v>0.80572476262911519</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A199" s="7">
         <v>38070</v>
       </c>
@@ -9914,7 +9918,7 @@
         <v>0.81987511414872927</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A200" s="7">
         <v>38070</v>
       </c>
@@ -9961,7 +9965,7 @@
         <v>0.80822348018145429</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A201" s="7">
         <v>38070</v>
       </c>
@@ -10008,7 +10012,7 @@
         <v>0.80253171497917131</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A202" s="7">
         <v>38070</v>
       </c>
@@ -10055,7 +10059,7 @@
         <v>0.76278188963196547</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A203" s="7">
         <v>38070</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>0.73821452384902841</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A204" s="7">
         <v>38070</v>
       </c>
@@ -10149,7 +10153,7 @@
         <v>0.74554941170856137</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A205" s="7">
         <v>38070</v>
       </c>
@@ -10196,7 +10200,7 @@
         <v>0.75008968944090637</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A206" s="7">
         <v>38070</v>
       </c>
@@ -10243,7 +10247,7 @@
         <v>0.75649143945110364</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A207" s="7">
         <v>38070</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>0.77336935952301578</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A208" s="7">
         <v>38070</v>
       </c>
@@ -10337,7 +10341,7 @@
         <v>0.75345495073965818</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A209" s="7">
         <v>38070</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>0.71459018119572426</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A210" s="7">
         <v>38070</v>
       </c>
@@ -10431,7 +10435,7 @@
         <v>0.65967492246210957</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A211" s="7">
         <v>38070</v>
       </c>
@@ -10478,7 +10482,7 @@
         <v>0.66973564155332133</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A212" s="7">
         <v>38070</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>0.97197872354722747</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A213" s="7">
         <v>38070</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>0.94966397413607706</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A214" s="7">
         <v>38070</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>0.879355586348885</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A215" s="7">
         <v>38070</v>
       </c>
@@ -10666,7 +10670,7 @@
         <v>0.86427172152447818</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A216" s="7">
         <v>38070</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>0.84860235158630903</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A217" s="7">
         <v>38070</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>0.83356456849531013</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A218" s="7">
         <v>38070</v>
       </c>
@@ -10807,7 +10811,7 @@
         <v>0.8247612751599469</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A219" s="7">
         <v>38070</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>0.77166877356266839</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A220" s="7">
         <v>38071</v>
       </c>
@@ -10901,7 +10905,7 @@
         <v>0.75158712468153144</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A221" s="7">
         <v>38071</v>
       </c>
@@ -10948,7 +10952,7 @@
         <v>0.76855625211231382</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A222" s="7">
         <v>38071</v>
       </c>
@@ -10995,7 +10999,7 @@
         <v>0.78904078787097731</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A223" s="7">
         <v>38071</v>
       </c>
@@ -11042,7 +11046,7 @@
         <v>0.84958782683959078</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A224" s="7">
         <v>38071</v>
       </c>
@@ -11089,7 +11093,7 @@
         <v>0.81517060501902694</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A225" s="7">
         <v>38071</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>0.8694953342019478</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A226" s="7">
         <v>38071</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>0.8544201662683033</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A227" s="7">
         <v>38071</v>
       </c>
@@ -11230,7 +11234,7 @@
         <v>0.84288389838193656</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A228" s="7">
         <v>38071</v>
       </c>
@@ -11277,7 +11281,7 @@
         <v>0.84154657443841707</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A229" s="7">
         <v>38071</v>
       </c>
@@ -11324,7 +11328,7 @@
         <v>0.83887196962530874</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A230" s="7">
         <v>38071</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>0.84473258490190584</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A231" s="7">
         <v>38071</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>0.82093227285560788</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A232" s="7">
         <v>38071</v>
       </c>
@@ -11465,7 +11469,7 @@
         <v>0.77799931185260185</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A233" s="7">
         <v>38071</v>
       </c>
@@ -11512,7 +11516,7 @@
         <v>0.74382362020602899</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A234" s="7">
         <v>38071</v>
       </c>
@@ -11559,7 +11563,7 @@
         <v>0.74615048373831516</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A235" s="7">
         <v>38071</v>
       </c>
@@ -11606,7 +11610,7 @@
         <v>0.70939566968955858</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A236" s="7">
         <v>38071</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>0.72249481009482719</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A237" s="7">
         <v>38071</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>0.68351311194696907</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A238" s="7">
         <v>38071</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>0.72933817776812748</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A239" s="7">
         <v>38071</v>
       </c>
@@ -11794,7 +11798,7 @@
         <v>0.76415226867087871</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A240" s="7">
         <v>38071</v>
       </c>
@@ -11841,7 +11845,7 @@
         <v>0.75550047611790794</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A241" s="7">
         <v>38071</v>
       </c>
@@ -11888,7 +11892,7 @@
         <v>0.71400735273979399</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A242" s="7">
         <v>38071</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>0.72758388564652832</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A243" s="7">
         <v>38072</v>
       </c>
@@ -11982,7 +11986,7 @@
         <v>0.73227991981364826</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A244" s="7">
         <v>38072</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>0.74251910228860718</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A245" s="7">
         <v>38072</v>
       </c>
@@ -12076,7 +12080,7 @@
         <v>0.73983394732971108</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A246" s="7">
         <v>38072</v>
       </c>
@@ -12123,7 +12127,7 @@
         <v>0.74585854734264168</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A247" s="7">
         <v>38072</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>0.76553383587152957</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A248" s="7">
         <v>38072</v>
       </c>
@@ -12217,7 +12221,7 @@
         <v>0.77111457478255174</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A249" s="7">
         <v>38072</v>
       </c>
@@ -12264,7 +12268,7 @@
         <v>0.73751237811227566</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A250" s="7">
         <v>38072</v>
       </c>
@@ -12311,7 +12315,7 @@
         <v>0.7213704052298594</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A251" s="7">
         <v>38072</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>0.75436930064577734</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A252" s="7">
         <v>38072</v>
       </c>
@@ -12405,7 +12409,7 @@
         <v>0.74070764029038072</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A253" s="7">
         <v>38072</v>
       </c>
@@ -12452,7 +12456,7 @@
         <v>0.67292304273074088</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A254" s="7">
         <v>38072</v>
       </c>
@@ -12499,7 +12503,7 @@
         <v>0.59762438956078456</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A255" s="7">
         <v>38072</v>
       </c>
@@ -12546,7 +12550,7 @@
         <v>0.57408490124914047</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A256" s="7">
         <v>38072</v>
       </c>
@@ -12593,7 +12597,7 @@
         <v>0.56825597474191847</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A257" s="7">
         <v>38072</v>
       </c>
@@ -12640,7 +12644,7 @@
         <v>0.592244433013977</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A258" s="7">
         <v>38072</v>
       </c>
@@ -12687,7 +12691,7 @@
         <v>0.62921283970227915</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A259" s="7">
         <v>38072</v>
       </c>
@@ -12734,7 +12738,7 @@
         <v>0.69819438825591151</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A260" s="7">
         <v>38072</v>
       </c>
@@ -12781,7 +12785,7 @@
         <v>0.64033091718301816</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A261" s="7">
         <v>38072</v>
       </c>
@@ -12828,7 +12832,7 @@
         <v>0.60455905415412059</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A262" s="7">
         <v>38072</v>
       </c>
@@ -12875,7 +12879,7 @@
         <v>0.62798763512330202</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A263" s="7">
         <v>38072</v>
       </c>
@@ -12922,7 +12926,7 @@
         <v>0.61718280241102397</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A264" s="7">
         <v>38072</v>
       </c>
@@ -12969,7 +12973,7 @@
         <v>0.60632811264070052</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A265" s="7">
         <v>38072</v>
       </c>
@@ -13016,7 +13020,7 @@
         <v>0.61028938152557488</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A266" s="7">
         <v>38073</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>0.63001025110325515</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A267" s="7">
         <v>38073</v>
       </c>
@@ -13110,7 +13114,7 @@
         <v>0.64882491690795219</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A268" s="7">
         <v>38073</v>
       </c>
@@ -13157,7 +13161,7 @@
         <v>0.67462841440094645</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A269" s="7">
         <v>38073</v>
       </c>
@@ -13204,7 +13208,7 @@
         <v>0.64440116056363483</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A270" s="7">
         <v>38073</v>
       </c>
@@ -13251,7 +13255,7 @@
         <v>0.64102215656235284</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A271" s="7">
         <v>38073</v>
       </c>
@@ -13298,7 +13302,7 @@
         <v>0.63958229608627448</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A272" s="7">
         <v>38073</v>
       </c>
@@ -13345,7 +13349,7 @@
         <v>0.65000888232097787</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A273" s="7">
         <v>38073</v>
       </c>
@@ -13392,7 +13396,7 @@
         <v>0.66538677736665175</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A274" s="7">
         <v>38073</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>0.63127500802057224</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A275" s="7">
         <v>38073</v>
       </c>
@@ -13486,7 +13490,7 @@
         <v>0.5920464600312022</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A276" s="7">
         <v>38073</v>
       </c>
@@ -13533,7 +13537,7 @@
         <v>0.60131673060926361</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A277" s="7">
         <v>38073</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>0.58613111216590497</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A278" s="7">
         <v>38073</v>
       </c>
@@ -13627,7 +13631,7 @@
         <v>0.57351603498403525</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A279" s="7">
         <v>38073</v>
       </c>
@@ -13674,7 +13678,7 @@
         <v>0.57367126270573687</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A280" s="7">
         <v>38073</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>0.55545893785812961</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A281" s="7">
         <v>38073</v>
       </c>
@@ -13778,32 +13782,32 @@
       <c r="C282" s="23">
         <v>2.7</v>
       </c>
-      <c r="D282" s="24">
-        <v>1209.5</v>
+      <c r="D282" s="39">
+        <v>165</v>
       </c>
       <c r="E282" s="23">
         <v>219</v>
       </c>
-      <c r="F282" s="29">
+      <c r="F282" s="37">
+        <v>12.352616700065974</v>
+      </c>
+      <c r="G282" s="38">
+        <v>1061.75</v>
+      </c>
+      <c r="H282" s="29">
+        <v>1209.5</v>
+      </c>
+      <c r="I282" s="38">
+        <v>885.5</v>
+      </c>
+      <c r="J282" s="38">
+        <v>125</v>
+      </c>
+      <c r="K282" s="38">
+        <v>1586.25</v>
+      </c>
+      <c r="L282" s="38">
         <v>980.5</v>
-      </c>
-      <c r="G282" s="24">
-        <v>1061.75</v>
-      </c>
-      <c r="H282" s="23">
-        <v>165</v>
-      </c>
-      <c r="I282" s="24">
-        <v>885.5</v>
-      </c>
-      <c r="J282" s="24">
-        <v>125</v>
-      </c>
-      <c r="K282" s="24">
-        <v>1586.25</v>
-      </c>
-      <c r="L282" s="28">
-        <v>12.352616700065974</v>
       </c>
       <c r="M282" s="25">
         <v>15.824999809265</v>
@@ -13825,32 +13829,32 @@
       <c r="C283" s="23">
         <v>3</v>
       </c>
-      <c r="D283" s="24">
-        <v>1305.75</v>
+      <c r="D283" s="39">
+        <v>196</v>
       </c>
       <c r="E283" s="23">
         <v>306</v>
       </c>
-      <c r="F283" s="29">
+      <c r="F283" s="37">
+        <v>12.868432241320129</v>
+      </c>
+      <c r="G283" s="38">
+        <v>1079.25</v>
+      </c>
+      <c r="H283" s="29">
+        <v>1305.75</v>
+      </c>
+      <c r="I283" s="38">
+        <v>826.75</v>
+      </c>
+      <c r="J283" s="38">
+        <v>133</v>
+      </c>
+      <c r="K283" s="38">
+        <v>1621</v>
+      </c>
+      <c r="L283" s="38">
         <v>1285.75</v>
-      </c>
-      <c r="G283" s="24">
-        <v>1079.25</v>
-      </c>
-      <c r="H283" s="23">
-        <v>196</v>
-      </c>
-      <c r="I283" s="24">
-        <v>826.75</v>
-      </c>
-      <c r="J283" s="24">
-        <v>133</v>
-      </c>
-      <c r="K283" s="24">
-        <v>1621</v>
-      </c>
-      <c r="L283" s="28">
-        <v>12.868432241320129</v>
       </c>
       <c r="M283" s="25">
         <v>14.674999952316</v>
@@ -13872,32 +13876,32 @@
       <c r="C284" s="23">
         <v>2.8</v>
       </c>
-      <c r="D284" s="24">
-        <v>1257.5</v>
+      <c r="D284" s="39">
+        <v>174</v>
       </c>
       <c r="E284" s="23">
         <v>270</v>
       </c>
-      <c r="F284" s="29">
+      <c r="F284" s="37">
+        <v>12.206895761540563</v>
+      </c>
+      <c r="G284" s="38">
+        <v>1056.75</v>
+      </c>
+      <c r="H284" s="29">
+        <v>1257.5</v>
+      </c>
+      <c r="I284" s="38">
+        <v>840.5</v>
+      </c>
+      <c r="J284" s="38">
+        <v>119</v>
+      </c>
+      <c r="K284" s="38">
+        <v>1632.75</v>
+      </c>
+      <c r="L284" s="38">
         <v>1243.5</v>
-      </c>
-      <c r="G284" s="24">
-        <v>1056.75</v>
-      </c>
-      <c r="H284" s="23">
-        <v>174</v>
-      </c>
-      <c r="I284" s="24">
-        <v>840.5</v>
-      </c>
-      <c r="J284" s="24">
-        <v>119</v>
-      </c>
-      <c r="K284" s="24">
-        <v>1632.75</v>
-      </c>
-      <c r="L284" s="28">
-        <v>12.206895761540563</v>
       </c>
       <c r="M284" s="25">
         <v>13.649999856949</v>
@@ -13919,32 +13923,32 @@
       <c r="C285" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D285" s="24">
-        <v>1148.25</v>
+      <c r="D285" s="39">
+        <v>140</v>
       </c>
       <c r="E285" s="23">
         <v>231</v>
       </c>
-      <c r="F285" s="29">
+      <c r="F285" s="37">
+        <v>8.7693379443981492</v>
+      </c>
+      <c r="G285" s="38">
+        <v>930.25</v>
+      </c>
+      <c r="H285" s="29">
+        <v>1148.25</v>
+      </c>
+      <c r="I285" s="38">
+        <v>947.5</v>
+      </c>
+      <c r="J285" s="38">
+        <v>107</v>
+      </c>
+      <c r="K285" s="38">
+        <v>1475.25</v>
+      </c>
+      <c r="L285" s="38">
         <v>1056.25</v>
-      </c>
-      <c r="G285" s="24">
-        <v>930.25</v>
-      </c>
-      <c r="H285" s="23">
-        <v>140</v>
-      </c>
-      <c r="I285" s="24">
-        <v>947.5</v>
-      </c>
-      <c r="J285" s="24">
-        <v>107</v>
-      </c>
-      <c r="K285" s="24">
-        <v>1475.25</v>
-      </c>
-      <c r="L285" s="28">
-        <v>8.7693379443981492</v>
       </c>
       <c r="M285" s="25">
         <v>12.5</v>
@@ -13966,32 +13970,32 @@
       <c r="C286" s="23">
         <v>1.6</v>
       </c>
-      <c r="D286" s="24">
-        <v>1107.75</v>
+      <c r="D286" s="39">
+        <v>102</v>
       </c>
       <c r="E286" s="23">
         <v>125</v>
       </c>
-      <c r="F286" s="29">
+      <c r="F286" s="37">
+        <v>6.7875236889060044</v>
+      </c>
+      <c r="G286" s="38">
+        <v>847.5</v>
+      </c>
+      <c r="H286" s="29">
+        <v>1107.75</v>
+      </c>
+      <c r="I286" s="38">
+        <v>1022.75</v>
+      </c>
+      <c r="J286" s="38">
+        <v>96</v>
+      </c>
+      <c r="K286" s="38">
+        <v>1420.75</v>
+      </c>
+      <c r="L286" s="38">
         <v>1003</v>
-      </c>
-      <c r="G286" s="24">
-        <v>847.5</v>
-      </c>
-      <c r="H286" s="23">
-        <v>102</v>
-      </c>
-      <c r="I286" s="24">
-        <v>1022.75</v>
-      </c>
-      <c r="J286" s="24">
-        <v>96</v>
-      </c>
-      <c r="K286" s="24">
-        <v>1420.75</v>
-      </c>
-      <c r="L286" s="28">
-        <v>6.7875236889060044</v>
       </c>
       <c r="M286" s="25">
         <v>11.849999904633</v>
@@ -14013,32 +14017,32 @@
       <c r="C287" s="23">
         <v>2.1</v>
       </c>
-      <c r="D287" s="24">
-        <v>1230.75</v>
+      <c r="D287" s="39">
+        <v>130</v>
       </c>
       <c r="E287" s="23">
         <v>122</v>
       </c>
-      <c r="F287" s="29">
+      <c r="F287" s="37">
+        <v>8.6058859089994009</v>
+      </c>
+      <c r="G287" s="38">
+        <v>923.75</v>
+      </c>
+      <c r="H287" s="29">
+        <v>1230.75</v>
+      </c>
+      <c r="I287" s="38">
+        <v>906</v>
+      </c>
+      <c r="J287" s="38">
+        <v>105</v>
+      </c>
+      <c r="K287" s="38">
+        <v>1483.25</v>
+      </c>
+      <c r="L287" s="38">
         <v>1244.5</v>
-      </c>
-      <c r="G287" s="24">
-        <v>923.75</v>
-      </c>
-      <c r="H287" s="23">
-        <v>130</v>
-      </c>
-      <c r="I287" s="24">
-        <v>906</v>
-      </c>
-      <c r="J287" s="24">
-        <v>105</v>
-      </c>
-      <c r="K287" s="24">
-        <v>1483.25</v>
-      </c>
-      <c r="L287" s="28">
-        <v>8.6058859089994009</v>
       </c>
       <c r="M287" s="25">
         <v>10.924999952316</v>
@@ -14060,32 +14064,32 @@
       <c r="C288" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D288" s="24">
-        <v>1292.5</v>
+      <c r="D288" s="39">
+        <v>121</v>
       </c>
       <c r="E288" s="23">
         <v>161</v>
       </c>
-      <c r="F288" s="29">
+      <c r="F288" s="37">
+        <v>8.934099266185445</v>
+      </c>
+      <c r="G288" s="38">
+        <v>936.75</v>
+      </c>
+      <c r="H288" s="29">
+        <v>1292.5</v>
+      </c>
+      <c r="I288" s="38">
+        <v>929.75</v>
+      </c>
+      <c r="J288" s="38">
+        <v>102</v>
+      </c>
+      <c r="K288" s="38">
+        <v>1463.75</v>
+      </c>
+      <c r="L288" s="38">
         <v>1200.25</v>
-      </c>
-      <c r="G288" s="24">
-        <v>936.75</v>
-      </c>
-      <c r="H288" s="23">
-        <v>121</v>
-      </c>
-      <c r="I288" s="24">
-        <v>929.75</v>
-      </c>
-      <c r="J288" s="24">
-        <v>102</v>
-      </c>
-      <c r="K288" s="24">
-        <v>1463.75</v>
-      </c>
-      <c r="L288" s="28">
-        <v>8.934099266185445</v>
       </c>
       <c r="M288" s="25">
         <v>10.875</v>
@@ -14107,32 +14111,32 @@
       <c r="C289" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D289" s="24">
-        <v>1274.25</v>
+      <c r="D289" s="39">
+        <v>111</v>
       </c>
       <c r="E289" s="23">
         <v>101</v>
       </c>
-      <c r="F289" s="29">
+      <c r="F289" s="37">
+        <v>8.3137492665957851</v>
+      </c>
+      <c r="G289" s="38">
+        <v>912</v>
+      </c>
+      <c r="H289" s="29">
+        <v>1274.25</v>
+      </c>
+      <c r="I289" s="38">
+        <v>939.25</v>
+      </c>
+      <c r="J289" s="38">
+        <v>97</v>
+      </c>
+      <c r="K289" s="38">
+        <v>1451</v>
+      </c>
+      <c r="L289" s="38">
         <v>1188</v>
-      </c>
-      <c r="G289" s="24">
-        <v>912</v>
-      </c>
-      <c r="H289" s="23">
-        <v>111</v>
-      </c>
-      <c r="I289" s="24">
-        <v>939.25</v>
-      </c>
-      <c r="J289" s="24">
-        <v>97</v>
-      </c>
-      <c r="K289" s="24">
-        <v>1451</v>
-      </c>
-      <c r="L289" s="28">
-        <v>8.3137492665957851</v>
       </c>
       <c r="M289" s="25">
         <v>10.300000190735</v>
@@ -14154,32 +14158,32 @@
       <c r="C290" s="23">
         <v>1.7</v>
       </c>
-      <c r="D290" s="24">
-        <v>1135.25</v>
+      <c r="D290" s="39">
+        <v>87</v>
       </c>
       <c r="E290" s="23">
         <v>95</v>
       </c>
-      <c r="F290" s="29">
+      <c r="F290" s="37">
+        <v>6.335782437222818</v>
+      </c>
+      <c r="G290" s="38">
+        <v>827.25</v>
+      </c>
+      <c r="H290" s="29">
+        <v>1135.25</v>
+      </c>
+      <c r="I290" s="38">
+        <v>1012.75</v>
+      </c>
+      <c r="J290" s="38">
+        <v>79</v>
+      </c>
+      <c r="K290" s="38">
+        <v>1394.5</v>
+      </c>
+      <c r="L290" s="38">
         <v>1070</v>
-      </c>
-      <c r="G290" s="24">
-        <v>827.25</v>
-      </c>
-      <c r="H290" s="23">
-        <v>87</v>
-      </c>
-      <c r="I290" s="24">
-        <v>1012.75</v>
-      </c>
-      <c r="J290" s="24">
-        <v>79</v>
-      </c>
-      <c r="K290" s="24">
-        <v>1394.5</v>
-      </c>
-      <c r="L290" s="28">
-        <v>6.335782437222818</v>
       </c>
       <c r="M290" s="25">
         <v>9.3000001907349006</v>
@@ -14201,32 +14205,32 @@
       <c r="C291" s="23">
         <v>1.3</v>
       </c>
-      <c r="D291" s="24">
-        <v>1009.5</v>
+      <c r="D291" s="39">
+        <v>77</v>
       </c>
       <c r="E291" s="23">
         <v>96</v>
       </c>
-      <c r="F291" s="29">
+      <c r="F291" s="37">
+        <v>5.116173813476844</v>
+      </c>
+      <c r="G291" s="38">
+        <v>769.25</v>
+      </c>
+      <c r="H291" s="29">
+        <v>1009.5</v>
+      </c>
+      <c r="I291" s="38">
+        <v>1109.75</v>
+      </c>
+      <c r="J291" s="38">
+        <v>69</v>
+      </c>
+      <c r="K291" s="38">
+        <v>1396</v>
+      </c>
+      <c r="L291" s="38">
         <v>895.25</v>
-      </c>
-      <c r="G291" s="24">
-        <v>769.25</v>
-      </c>
-      <c r="H291" s="23">
-        <v>77</v>
-      </c>
-      <c r="I291" s="24">
-        <v>1109.75</v>
-      </c>
-      <c r="J291" s="24">
-        <v>69</v>
-      </c>
-      <c r="K291" s="24">
-        <v>1396</v>
-      </c>
-      <c r="L291" s="28">
-        <v>5.116173813476844</v>
       </c>
       <c r="M291" s="25">
         <v>8.3000000715256004</v>
@@ -14238,7 +14242,7 @@
         <v>0.71243071693000359</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A292" s="7">
         <v>38074</v>
       </c>
@@ -14285,7 +14289,7 @@
         <v>0.69996874866034631</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A293" s="7">
         <v>38074</v>
       </c>
@@ -14332,7 +14336,7 @@
         <v>0.69899015254276453</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A294" s="7">
         <v>38074</v>
       </c>
@@ -14379,7 +14383,7 @@
         <v>0.70427583425851525</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A295" s="7">
         <v>38074</v>
       </c>
@@ -14426,7 +14430,7 @@
         <v>0.70347152940780677</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A296" s="7">
         <v>38074</v>
       </c>
@@ -14473,7 +14477,7 @@
         <v>0.72421487420422703</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A297" s="7">
         <v>38074</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>0.70180825576360761</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A298" s="7">
         <v>38074</v>
       </c>
@@ -14567,7 +14571,7 @@
         <v>0.68867752687354422</v>
       </c>
     </row>
-    <row r="299" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A299" s="30">
         <v>38074</v>
       </c>
@@ -14614,7 +14618,7 @@
         <v>0.66074307794291465</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A300" s="7">
         <v>38074</v>
       </c>
@@ -14661,7 +14665,7 @@
         <v>0.57677486304556669</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A301" s="7">
         <v>38074</v>
       </c>
@@ -14708,7 +14712,7 @@
         <v>0.53185405251939621</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A302" s="7">
         <v>38074</v>
       </c>
@@ -14755,7 +14759,7 @@
         <v>0.5594339224287499</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A303" s="7">
         <v>38074</v>
       </c>
@@ -14802,7 +14806,7 @@
         <v>0.58483683383044305</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A304" s="7">
         <v>38074</v>
       </c>
@@ -14849,7 +14853,7 @@
         <v>0.60475529898644664</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A305" s="7">
         <v>38074</v>
       </c>
@@ -14896,7 +14900,7 @@
         <v>0.61699671723531857</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A306" s="7">
         <v>38074</v>
       </c>
@@ -14943,7 +14947,7 @@
         <v>0.64384568997170522</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A307" s="7">
         <v>38074</v>
       </c>
@@ -14990,7 +14994,7 @@
         <v>0.66232043189353529</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A308" s="7">
         <v>38074</v>
       </c>
@@ -15037,7 +15041,7 @@
         <v>0.66859702964662382</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A309" s="7">
         <v>38074</v>
       </c>
@@ -15084,7 +15088,7 @@
         <v>0.64494789997999213</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A310" s="7">
         <v>38074</v>
       </c>
@@ -15131,7 +15135,7 @@
         <v>0.63185184497616698</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A311" s="7">
         <v>38075</v>
       </c>
@@ -15178,7 +15182,7 @@
         <v>0.61354543039317611</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A312" s="7">
         <v>38075</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>0.58954594423088436</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A313" s="7">
         <v>38075</v>
       </c>
@@ -15272,7 +15276,7 @@
         <v>0.59013358810537786</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A314" s="7">
         <v>38075</v>
       </c>
@@ -15319,7 +15323,7 @@
         <v>0.62796232085516845</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A315" s="7">
         <v>38075</v>
       </c>
@@ -15366,7 +15370,7 @@
         <v>0.63407709129006951</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A316" s="7">
         <v>38075</v>
       </c>
@@ -15413,7 +15417,7 @@
         <v>0.61667507705707425</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A317" s="7">
         <v>38075</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>0.61499077692844606</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A318" s="7">
         <v>38075</v>
       </c>
@@ -15507,7 +15511,7 @@
         <v>0.57476675002452826</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A319" s="7">
         <v>38075</v>
       </c>
@@ -15554,7 +15558,7 @@
         <v>0.51842351050530189</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A320" s="7">
         <v>38075</v>
       </c>
@@ -15601,7 +15605,7 @@
         <v>0.52221954695439798</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A321" s="7">
         <v>38075</v>
       </c>
@@ -15648,7 +15652,7 @@
         <v>0.52850945327027898</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A322" s="7">
         <v>38075</v>
       </c>
@@ -15695,7 +15699,7 @@
         <v>0.54056168982757336</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A323" s="7">
         <v>38075</v>
       </c>
@@ -15742,7 +15746,7 @@
         <v>0.5517006195546249</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A324" s="7">
         <v>38075</v>
       </c>
@@ -15789,7 +15793,7 @@
         <v>0.54460605677364304</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A325" s="7">
         <v>38075</v>
       </c>
@@ -15836,7 +15840,7 @@
         <v>0.53865806271919325</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A326" s="7">
         <v>38075</v>
       </c>
@@ -15883,7 +15887,7 @@
         <v>0.55224733548118132</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A327" s="7">
         <v>38075</v>
       </c>
@@ -15930,7 +15934,7 @@
         <v>0.55579549599457045</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A328" s="7">
         <v>38075</v>
       </c>
@@ -15977,7 +15981,7 @@
         <v>0.56804360332976811</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A329" s="7">
         <v>38075</v>
       </c>
@@ -16024,7 +16028,7 @@
         <v>0.58387615144501059</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A330" s="7">
         <v>38075</v>
       </c>
@@ -16071,7 +16075,7 @@
         <v>0.57329609876744347</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A331" s="7">
         <v>38075</v>
       </c>
@@ -16118,7 +16122,7 @@
         <v>0.51699589214078845</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A332" s="7">
         <v>38075</v>
       </c>
@@ -16165,7 +16169,7 @@
         <v>0.44045253936619161</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A333" s="7">
         <v>38075</v>
       </c>
@@ -16212,7 +16216,7 @@
         <v>0.45831741825011613</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A334" s="7">
         <v>38076</v>
       </c>
@@ -16259,7 +16263,7 @@
         <v>0.40231680891943661</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A335" s="7">
         <v>38076</v>
       </c>
@@ -16306,7 +16310,7 @@
         <v>0.45953951928303821</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A336" s="7">
         <v>38076</v>
       </c>
@@ -16353,7 +16357,7 @@
         <v>0.54415224537633333</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A337" s="7">
         <v>38076</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>0.50372615365593676</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A338" s="7">
         <v>38076</v>
       </c>
@@ -16447,7 +16451,7 @@
         <v>0.53760194852361498</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A339" s="7">
         <v>38076</v>
       </c>
@@ -16494,7 +16498,7 @@
         <v>0.53409793615803924</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A340" s="7">
         <v>38076</v>
       </c>
@@ -16541,7 +16545,7 @@
         <v>0.54155922853122496</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A341" s="7">
         <v>38076</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>0.53052447609335873</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A342" s="7">
         <v>38076</v>
       </c>
@@ -16635,7 +16639,7 @@
         <v>0.57407165899003476</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A343" s="7">
         <v>38076</v>
       </c>
@@ -16682,7 +16686,7 @@
         <v>0.55290311804369696</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A344" s="7">
         <v>38076</v>
       </c>
@@ -16729,7 +16733,7 @@
         <v>0.54630668819853756</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A345" s="7">
         <v>38076</v>
       </c>
@@ -16776,7 +16780,7 @@
         <v>0.5351852806629579</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A346" s="7">
         <v>38076</v>
       </c>
@@ -16823,7 +16827,7 @@
         <v>0.52948251402104984</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A347" s="7">
         <v>38076</v>
       </c>
@@ -16870,7 +16874,7 @@
         <v>0.57902981406131471</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A348" s="7">
         <v>38076</v>
       </c>
@@ -16917,7 +16921,7 @@
         <v>0.6295234045510375</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A349" s="7">
         <v>38076</v>
       </c>
@@ -16964,7 +16968,7 @@
         <v>0.67877642430106166</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A350" s="7">
         <v>38076</v>
       </c>
@@ -17011,7 +17015,7 @@
         <v>0.72279245141510218</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A351" s="7">
         <v>38076</v>
       </c>
@@ -17058,7 +17062,7 @@
         <v>0.75405280301771904</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A352" s="7">
         <v>38076</v>
       </c>
@@ -17105,7 +17109,7 @@
         <v>0.77899639884145588</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A353" s="7">
         <v>38076</v>
       </c>
@@ -17152,7 +17156,7 @@
         <v>0.78332647813484213</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A354" s="7">
         <v>38076</v>
       </c>
@@ -17199,7 +17203,7 @@
         <v>0.75736518979745215</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A355" s="7">
         <v>38076</v>
       </c>
@@ -17246,7 +17250,7 @@
         <v>0.73021605768611342</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A356" s="7">
         <v>38077</v>
       </c>
@@ -17293,7 +17297,7 @@
         <v>0.68498834183851987</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A357" s="7">
         <v>38077</v>
       </c>
@@ -17340,7 +17344,7 @@
         <v>0.68140222473025136</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A358" s="7">
         <v>38077</v>
       </c>
@@ -17387,7 +17391,7 @@
         <v>0.68338996779754568</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A359" s="7">
         <v>38077</v>
       </c>
@@ -17434,7 +17438,7 @@
         <v>0.59281729185961196</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A360" s="7">
         <v>38077</v>
       </c>
@@ -17481,7 +17485,7 @@
         <v>0.59470085194378575</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A361" s="7">
         <v>38077</v>
       </c>
@@ -17528,7 +17532,7 @@
         <v>0.62909969071497041</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A362" s="7">
         <v>38077</v>
       </c>
@@ -17575,7 +17579,7 @@
         <v>0.9128551665206911</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A363" s="7">
         <v>38077</v>
       </c>
@@ -17622,7 +17626,7 @@
         <v>0.92559882998600373</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A364" s="7">
         <v>38077</v>
       </c>
@@ -17669,7 +17673,7 @@
         <v>0.93842471681906736</v>
       </c>
     </row>
-    <row r="365" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A365" s="30">
         <v>38077</v>
       </c>
@@ -17716,7 +17720,7 @@
         <v>0.95821147900770587</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A366" s="7">
         <v>38077</v>
       </c>
@@ -17763,7 +17767,7 @@
         <v>0.99236626508397674</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A367" s="7">
         <v>38077</v>
       </c>
@@ -17810,7 +17814,7 @@
         <v>1.0441698361334117</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A368" s="7">
         <v>38077</v>
       </c>
@@ -17857,7 +17861,7 @@
         <v>1.0411431251352763</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A369" s="7">
         <v>38077</v>
       </c>
@@ -17904,7 +17908,7 @@
         <v>1.074585128800994</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A370" s="7">
         <v>38077</v>
       </c>
@@ -17951,7 +17955,7 @@
         <v>0.99744100396026014</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A371" s="7">
         <v>38077</v>
       </c>
@@ -17998,7 +18002,7 @@
         <v>0.89967667237078652</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A372" s="7">
         <v>38077</v>
       </c>
@@ -18045,7 +18049,7 @@
         <v>0.9087412043656885</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A373" s="7">
         <v>38077</v>
       </c>
@@ -18092,7 +18096,7 @@
         <v>0.88806469693545631</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A374" s="7">
         <v>38077</v>
       </c>
@@ -18139,7 +18143,7 @@
         <v>0.85810263233071249</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A375" s="7">
         <v>38077</v>
       </c>
@@ -18186,7 +18190,7 @@
         <v>0.84455842596113262</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A376" s="7">
         <v>38077</v>
       </c>
@@ -18233,7 +18237,7 @@
         <v>0.83153088363530547</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A377" s="7">
         <v>38077</v>
       </c>
@@ -18280,7 +18284,7 @@
         <v>0.82237722432510107</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A378" s="7">
         <v>38077</v>
       </c>
@@ -18327,7 +18331,7 @@
         <v>0.81638713976388511</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A379" s="7">
         <v>38078</v>
       </c>
@@ -18374,7 +18378,7 @@
         <v>0.85934420347556162</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A380" s="7">
         <v>38078</v>
       </c>
@@ -18421,7 +18425,7 @@
         <v>0.86515619087287798</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A381" s="7">
         <v>38078</v>
       </c>
@@ -18468,7 +18472,7 @@
         <v>0.86298798586439174</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A382" s="7">
         <v>38078</v>
       </c>
@@ -18515,7 +18519,7 @@
         <v>0.82989756012720528</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A383" s="7">
         <v>38078</v>
       </c>
@@ -18562,7 +18566,7 @@
         <v>0.8325141696783469</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A384" s="7">
         <v>38078</v>
       </c>
@@ -18609,7 +18613,7 @@
         <v>0.82426435823440425</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A385" s="7">
         <v>38078</v>
       </c>
@@ -18656,7 +18660,7 @@
         <v>0.82732897115997817</v>
       </c>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A386" s="7">
         <v>38078</v>
       </c>
@@ -18703,7 +18707,7 @@
         <v>0.84547501284221294</v>
       </c>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A387" s="7">
         <v>38078</v>
       </c>
@@ -18750,7 +18754,7 @@
         <v>0.88920748599170418</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A388" s="7">
         <v>38078</v>
       </c>
@@ -18797,7 +18801,7 @@
         <v>0.86926607665299693</v>
       </c>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A389" s="7">
         <v>38078</v>
       </c>
@@ -18844,7 +18848,7 @@
         <v>0.87432384918389305</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A390" s="7">
         <v>38078</v>
       </c>
@@ -18891,7 +18895,7 @@
         <v>0.8797143487757445</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A391" s="7">
         <v>38078</v>
       </c>
@@ -18938,7 +18942,7 @@
         <v>0.8771400609158182</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A392" s="7">
         <v>38078</v>
       </c>
@@ -18985,7 +18989,7 @@
         <v>0.79125951056268073</v>
       </c>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A393" s="7">
         <v>38078</v>
       </c>
@@ -19032,7 +19036,7 @@
         <v>0.88136114844491442</v>
       </c>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A394" s="7">
         <v>38078</v>
       </c>
@@ -19079,7 +19083,7 @@
         <v>0.88777760257668392</v>
       </c>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A395" s="7">
         <v>38078</v>
       </c>
@@ -19126,7 +19130,7 @@
         <v>0.84934226645487843</v>
       </c>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A396" s="7">
         <v>38078</v>
       </c>
@@ -19173,7 +19177,7 @@
         <v>0.834143825684035</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A397" s="7">
         <v>38078</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>0.85688413296537347</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A398" s="7">
         <v>38078</v>
       </c>
@@ -19267,7 +19271,7 @@
         <v>0.87566915277810131</v>
       </c>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A399" s="7">
         <v>38079</v>
       </c>
@@ -19314,7 +19318,7 @@
         <v>0.87014683057527797</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A400" s="7">
         <v>38079</v>
       </c>
@@ -19361,7 +19365,7 @@
         <v>0.89221185101015954</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A401" s="7">
         <v>38079</v>
       </c>
@@ -19408,7 +19412,7 @@
         <v>0.92291245215323392</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A402" s="7">
         <v>38079</v>
       </c>
@@ -19455,7 +19459,7 @@
         <v>0.97375698343892025</v>
       </c>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A403" s="7">
         <v>38079</v>
       </c>
@@ -19502,7 +19506,7 @@
         <v>0.96710551145409507</v>
       </c>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A404" s="7">
         <v>38079</v>
       </c>
@@ -19549,7 +19553,7 @@
         <v>1.0253719725163488</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A405" s="7">
         <v>38079</v>
       </c>
@@ -19596,7 +19600,7 @@
         <v>1.0220869736325955</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A406" s="7">
         <v>38079</v>
       </c>
@@ -19643,7 +19647,7 @@
         <v>1.0136349862660901</v>
       </c>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A407" s="7">
         <v>38079</v>
       </c>
@@ -19690,7 +19694,7 @@
         <v>1.0013385620112398</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A408" s="7">
         <v>38079</v>
       </c>
@@ -19737,7 +19741,7 @@
         <v>0.98548407770574631</v>
       </c>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A409" s="7">
         <v>38079</v>
       </c>
@@ -19784,7 +19788,7 @@
         <v>0.93223696533330647</v>
       </c>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A410" s="7">
         <v>38079</v>
       </c>
@@ -19831,7 +19835,7 @@
         <v>0.90012924887394996</v>
       </c>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A411" s="7">
         <v>38079</v>
       </c>
@@ -19878,7 +19882,7 @@
         <v>0.93709892118952109</v>
       </c>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A412" s="7">
         <v>38079</v>
       </c>
@@ -19925,7 +19929,7 @@
         <v>0.91005154804737187</v>
       </c>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A413" s="7">
         <v>38079</v>
       </c>
@@ -19972,7 +19976,7 @@
         <v>0.82881011124000226</v>
       </c>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A414" s="7">
         <v>38079</v>
       </c>
@@ -20019,7 +20023,7 @@
         <v>0.77916266603828954</v>
       </c>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A415" s="7">
         <v>38079</v>
       </c>
@@ -20066,7 +20070,7 @@
         <v>0.90121588250400075</v>
       </c>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A416" s="7">
         <v>38079</v>
       </c>
@@ -20113,7 +20117,7 @@
         <v>0.99783299160386396</v>
       </c>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A417" s="7">
         <v>38079</v>
       </c>
@@ -20160,7 +20164,7 @@
         <v>0.94825396172212983</v>
       </c>
     </row>
-    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A418" s="7">
         <v>38079</v>
       </c>
@@ -20207,7 +20211,7 @@
         <v>0.90737985994566595</v>
       </c>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A419" s="7">
         <v>38079</v>
       </c>
@@ -20254,7 +20258,7 @@
         <v>0.9467088086263501</v>
       </c>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A420" s="7">
         <v>38079</v>
       </c>
@@ -20301,7 +20305,7 @@
         <v>1.0100328275036838</v>
       </c>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A421" s="7">
         <v>38080</v>
       </c>
@@ -20348,7 +20352,7 @@
         <v>0.99904094437913538</v>
       </c>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A422" s="7">
         <v>38080</v>
       </c>
@@ -20395,7 +20399,7 @@
         <v>0.99327621287557233</v>
       </c>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A423" s="7">
         <v>38080</v>
       </c>
@@ -20442,7 +20446,7 @@
         <v>0.98856983235769091</v>
       </c>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A424" s="7">
         <v>38080</v>
       </c>
@@ -20489,7 +20493,7 @@
         <v>0.94883108281750417</v>
       </c>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A425" s="7">
         <v>38080</v>
       </c>
@@ -20536,7 +20540,7 @@
         <v>0.96308344314900529</v>
       </c>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A426" s="7">
         <v>38080</v>
       </c>
@@ -20583,7 +20587,7 @@
         <v>0.94078443302198056</v>
       </c>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A427" s="7">
         <v>38080</v>
       </c>
@@ -20630,7 +20634,7 @@
         <v>0.93992134264997307</v>
       </c>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A428" s="7">
         <v>38080</v>
       </c>
@@ -20677,7 +20681,7 @@
         <v>0.9486190247860613</v>
       </c>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A429" s="7">
         <v>38080</v>
       </c>
@@ -20724,7 +20728,7 @@
         <v>0.96836852564362874</v>
       </c>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A430" s="7">
         <v>38082</v>
       </c>
@@ -20771,7 +20775,7 @@
         <v>1.0075441570496249</v>
       </c>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A431" s="7">
         <v>38082</v>
       </c>
@@ -20818,7 +20822,7 @@
         <v>1.0382077156536984</v>
       </c>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A432" s="7">
         <v>38082</v>
       </c>
@@ -20865,7 +20869,7 @@
         <v>1.043377570861781</v>
       </c>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A433" s="7">
         <v>38082</v>
       </c>
@@ -20912,7 +20916,7 @@
         <v>1.0551873820329405</v>
       </c>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A434" s="7">
         <v>38082</v>
       </c>
@@ -20959,7 +20963,7 @@
         <v>1.0653261891204455</v>
       </c>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A435" s="7">
         <v>38082</v>
       </c>
@@ -21006,7 +21010,7 @@
         <v>1.0605504308596529</v>
       </c>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A436" s="7">
         <v>38082</v>
       </c>
@@ -21053,7 +21057,7 @@
         <v>1.0105918398252391</v>
       </c>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A437" s="7">
         <v>38082</v>
       </c>
@@ -21100,7 +21104,7 @@
         <v>1.0053293261816674</v>
       </c>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A438" s="7">
         <v>38082</v>
       </c>
@@ -21147,7 +21151,7 @@
         <v>1.0312246874299091</v>
       </c>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A439" s="7">
         <v>38082</v>
       </c>
@@ -21194,7 +21198,7 @@
         <v>1.0199260904465013</v>
       </c>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A440" s="7">
         <v>38082</v>
       </c>
@@ -21241,7 +21245,7 @@
         <v>1.0064378607173432</v>
       </c>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A441" s="7">
         <v>38082</v>
       </c>
@@ -21288,7 +21292,7 @@
         <v>1.0089772355664224</v>
       </c>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A442" s="7">
         <v>38082</v>
       </c>
@@ -21335,7 +21339,7 @@
         <v>1.0230268132897535</v>
       </c>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A443" s="7">
         <v>38082</v>
       </c>
@@ -21382,7 +21386,7 @@
         <v>1.0363455080563233</v>
       </c>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A444" s="7">
         <v>38083</v>
       </c>
@@ -21429,7 +21433,7 @@
         <v>1.0408092259029822</v>
       </c>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A445" s="7">
         <v>38083</v>
       </c>
@@ -21476,7 +21480,7 @@
         <v>1.0223592859459796</v>
       </c>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A446" s="7">
         <v>38083</v>
       </c>
@@ -21523,7 +21527,7 @@
         <v>1.0059262147828834</v>
       </c>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A447" s="7">
         <v>38083</v>
       </c>
@@ -21570,7 +21574,7 @@
         <v>0.98834773110121044</v>
       </c>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A448" s="7">
         <v>38083</v>
       </c>
@@ -21617,7 +21621,7 @@
         <v>0.97112379937481297</v>
       </c>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A449" s="7">
         <v>38083</v>
       </c>
@@ -21664,7 +21668,7 @@
         <v>0.95938935004907366</v>
       </c>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A450" s="7">
         <v>38083</v>
       </c>
@@ -21711,7 +21715,7 @@
         <v>0.95378835590865119</v>
       </c>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A451" s="7">
         <v>38083</v>
       </c>
@@ -21758,7 +21762,7 @@
         <v>0.95759246016809318</v>
       </c>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A452" s="7">
         <v>38083</v>
       </c>
@@ -21805,7 +21809,7 @@
         <v>0.97343823938461871</v>
       </c>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A453" s="7">
         <v>38083</v>
       </c>
@@ -21852,7 +21856,7 @@
         <v>0.94068058774146479</v>
       </c>
     </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A454" s="7">
         <v>38083</v>
       </c>
@@ -21899,7 +21903,7 @@
         <v>0.93701221325556006</v>
       </c>
     </row>
-    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A455" s="7">
         <v>38083</v>
       </c>
@@ -21946,7 +21950,7 @@
         <v>0.8939372165648346</v>
       </c>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A456" s="7">
         <v>38083</v>
       </c>
@@ -21993,7 +21997,7 @@
         <v>0.82285662608937005</v>
       </c>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A457" s="7">
         <v>38083</v>
       </c>
@@ -22040,7 +22044,7 @@
         <v>0.78130826278988796</v>
       </c>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A458" s="7">
         <v>38083</v>
       </c>
@@ -22087,7 +22091,7 @@
         <v>0.78287625670694727</v>
       </c>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A459" s="7">
         <v>38083</v>
       </c>
@@ -22134,7 +22138,7 @@
         <v>0.7883009974016415</v>
       </c>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A460" s="7">
         <v>38083</v>
       </c>
@@ -22181,7 +22185,7 @@
         <v>0.8068108689475354</v>
       </c>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A461" s="7">
         <v>38083</v>
       </c>
@@ -22228,7 +22232,7 @@
         <v>0.84281947904438492</v>
       </c>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A462" s="7">
         <v>38083</v>
       </c>
@@ -22275,7 +22279,7 @@
         <v>0.87455978846769888</v>
       </c>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A463" s="7">
         <v>38083</v>
       </c>
@@ -22322,7 +22326,7 @@
         <v>0.89473048550102574</v>
       </c>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A464" s="7">
         <v>38083</v>
       </c>
@@ -22369,7 +22373,7 @@
         <v>0.87678974032096768</v>
       </c>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A465" s="7">
         <v>38083</v>
       </c>
@@ -22416,7 +22420,7 @@
         <v>0.86531589684167343</v>
       </c>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A466" s="7">
         <v>38083</v>
       </c>
@@ -22463,7 +22467,7 @@
         <v>0.83245989371411799</v>
       </c>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A467" s="7">
         <v>38084</v>
       </c>
@@ -22510,7 +22514,7 @@
         <v>0.81209121313017296</v>
       </c>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A468" s="7">
         <v>38084</v>
       </c>
@@ -22557,7 +22561,7 @@
         <v>0.79195934431616655</v>
       </c>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A469" s="7">
         <v>38084</v>
       </c>
@@ -22604,7 +22608,7 @@
         <v>0.7827044288458469</v>
       </c>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A470" s="7">
         <v>38084</v>
       </c>
@@ -22651,7 +22655,7 @@
         <v>0.80627403084406268</v>
       </c>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A471" s="7">
         <v>38084</v>
       </c>
@@ -22698,7 +22702,7 @@
         <v>0.86168711342034288</v>
       </c>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A472" s="7">
         <v>38084</v>
       </c>
@@ -22745,7 +22749,7 @@
         <v>0.94434717540452151</v>
       </c>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A473" s="7">
         <v>38084</v>
       </c>
@@ -22792,7 +22796,7 @@
         <v>0.94307530591573008</v>
       </c>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A474" s="7">
         <v>38084</v>
       </c>
@@ -22839,7 +22843,7 @@
         <v>0.88165069342723701</v>
       </c>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A475" s="7">
         <v>38084</v>
       </c>
@@ -22886,7 +22890,7 @@
         <v>0.95194036004391069</v>
       </c>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A476" s="7">
         <v>38084</v>
       </c>
@@ -22933,7 +22937,7 @@
         <v>0.96747910005622206</v>
       </c>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A477" s="7">
         <v>38084</v>
       </c>
@@ -22980,7 +22984,7 @@
         <v>0.82939240368984346</v>
       </c>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A478" s="7">
         <v>38084</v>
       </c>
@@ -23027,7 +23031,7 @@
         <v>0.79217844028422579</v>
       </c>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A479" s="7">
         <v>38084</v>
       </c>
@@ -23074,7 +23078,7 @@
         <v>0.86792671430183732</v>
       </c>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A480" s="7">
         <v>38084</v>
       </c>
@@ -23121,7 +23125,7 @@
         <v>0.84333418598504628</v>
       </c>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A481" s="7">
         <v>38084</v>
       </c>
@@ -23168,7 +23172,7 @@
         <v>0.9952506258732835</v>
       </c>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A482" s="7">
         <v>38084</v>
       </c>
@@ -23215,7 +23219,7 @@
         <v>0.88189443311348203</v>
       </c>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A483" s="7">
         <v>38084</v>
       </c>
@@ -23262,7 +23266,7 @@
         <v>0.75977588967864229</v>
       </c>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A484" s="7">
         <v>38084</v>
       </c>
@@ -23309,7 +23313,7 @@
         <v>0.80894370886482903</v>
       </c>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A485" s="7">
         <v>38084</v>
       </c>
@@ -23356,7 +23360,7 @@
         <v>0.95139862524933672</v>
       </c>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A486" s="7">
         <v>38084</v>
       </c>
@@ -23403,7 +23407,7 @@
         <v>0.90866279800107008</v>
       </c>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A487" s="7">
         <v>38084</v>
       </c>
@@ -23450,7 +23454,7 @@
         <v>0.87015675943093895</v>
       </c>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A488" s="7">
         <v>38084</v>
       </c>
@@ -23497,7 +23501,7 @@
         <v>0.87960533865362023</v>
       </c>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A489" s="7">
         <v>38084</v>
       </c>
@@ -23544,7 +23548,7 @@
         <v>0.90876285461173945</v>
       </c>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A490" s="7">
         <v>38085</v>
       </c>
@@ -23591,7 +23595,7 @@
         <v>0.87986610885485872</v>
       </c>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A491" s="7">
         <v>38085</v>
       </c>
@@ -23638,7 +23642,7 @@
         <v>0.88248347388890569</v>
       </c>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A492" s="7">
         <v>38085</v>
       </c>
@@ -23685,7 +23689,7 @@
         <v>0.8671896523617082</v>
       </c>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A493" s="7">
         <v>38085</v>
       </c>
@@ -23732,7 +23736,7 @@
         <v>0.77976994281200618</v>
       </c>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A494" s="7">
         <v>38085</v>
       </c>
@@ -23779,7 +23783,7 @@
         <v>0.76092494567913027</v>
       </c>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A495" s="7">
         <v>38085</v>
       </c>
@@ -23826,7 +23830,7 @@
         <v>0.76273025776503944</v>
       </c>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A496" s="7">
         <v>38085</v>
       </c>
@@ -23873,7 +23877,7 @@
         <v>0.78594948107150753</v>
       </c>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A497" s="7">
         <v>38085</v>
       </c>
@@ -23920,7 +23924,7 @@
         <v>0.80902841465020214</v>
       </c>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A498" s="7">
         <v>38085</v>
       </c>
@@ -23967,7 +23971,7 @@
         <v>0.79121214070220525</v>
       </c>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A499" s="7">
         <v>38085</v>
       </c>
@@ -24014,7 +24018,7 @@
         <v>0.7565718712142413</v>
       </c>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A500" s="7">
         <v>38085</v>
       </c>
@@ -24061,7 +24065,7 @@
         <v>0.69412327891042225</v>
       </c>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A501" s="7">
         <v>38085</v>
       </c>
@@ -24108,7 +24112,7 @@
         <v>0.63232144060091233</v>
       </c>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A502" s="7">
         <v>38085</v>
       </c>
@@ -24155,7 +24159,7 @@
         <v>0.5431509987824682</v>
       </c>
     </row>
-    <row r="503" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="503" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A503" s="30">
         <v>38085</v>
       </c>
@@ -24202,7 +24206,7 @@
         <v>0.59306394031511511</v>
       </c>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A504" s="7">
         <v>38085</v>
       </c>
@@ -24249,7 +24253,7 @@
         <v>0.62643488916746226</v>
       </c>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A505" s="7">
         <v>38085</v>
       </c>
@@ -24296,7 +24300,7 @@
         <v>0.62025013793217165</v>
       </c>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A506" s="7">
         <v>38085</v>
       </c>
@@ -24343,7 +24347,7 @@
         <v>0.63569775858781241</v>
       </c>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A507" s="7">
         <v>38085</v>
       </c>
@@ -24390,7 +24394,7 @@
         <v>0.67374330303745389</v>
       </c>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A508" s="7">
         <v>38085</v>
       </c>
@@ -24437,7 +24441,7 @@
         <v>0.70960717261194994</v>
       </c>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A509" s="7">
         <v>38085</v>
       </c>
@@ -24484,7 +24488,7 @@
         <v>0.71944274814760367</v>
       </c>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A510" s="7">
         <v>38085</v>
       </c>
@@ -24531,7 +24535,7 @@
         <v>0.73628095234372304</v>
       </c>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A511" s="7">
         <v>38086</v>
       </c>
@@ -24578,7 +24582,7 @@
         <v>0.95228076826632113</v>
       </c>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A512" s="7">
         <v>38087</v>
       </c>
@@ -24625,7 +24629,7 @@
         <v>0.93359992128408609</v>
       </c>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A513" s="7">
         <v>38087</v>
       </c>
@@ -24672,7 +24676,7 @@
         <v>0.95033209155644593</v>
       </c>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A514" s="7">
         <v>38087</v>
       </c>
@@ -24719,7 +24723,7 @@
         <v>0.93896121250974107</v>
       </c>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A515" s="7">
         <v>38087</v>
       </c>
@@ -24766,7 +24770,7 @@
         <v>0.90919643587544863</v>
       </c>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A516" s="7">
         <v>38087</v>
       </c>
@@ -24813,7 +24817,7 @@
         <v>0.91285820804130857</v>
       </c>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A517" s="7">
         <v>38087</v>
       </c>
@@ -24860,7 +24864,7 @@
         <v>0.91424292969324894</v>
       </c>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A518" s="7">
         <v>38087</v>
       </c>
@@ -24907,7 +24911,7 @@
         <v>0.92792004880820533</v>
       </c>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A519" s="7">
         <v>38087</v>
       </c>
@@ -24954,7 +24958,7 @@
         <v>0.92058892830301109</v>
       </c>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A520" s="7">
         <v>38087</v>
       </c>
@@ -25001,7 +25005,7 @@
         <v>0.89929251118628917</v>
       </c>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A521" s="7">
         <v>38087</v>
       </c>
@@ -25048,7 +25052,7 @@
         <v>0.8312635724910663</v>
       </c>
     </row>
-    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A522" s="7">
         <v>38087</v>
       </c>
@@ -25095,7 +25099,7 @@
         <v>0.78620425329160282</v>
       </c>
     </row>
-    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A523" s="7">
         <v>38087</v>
       </c>
@@ -25142,7 +25146,7 @@
         <v>0.72129890699331189</v>
       </c>
     </row>
-    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A524" s="7">
         <v>38087</v>
       </c>
@@ -25189,7 +25193,7 @@
         <v>0.61367360287549999</v>
       </c>
     </row>
-    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A525" s="7">
         <v>38087</v>
       </c>
@@ -25236,7 +25240,7 @@
         <v>0.52826441024608461</v>
       </c>
     </row>
-    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A526" s="7">
         <v>38087</v>
       </c>
@@ -25283,7 +25287,7 @@
         <v>0.57221883198358714</v>
       </c>
     </row>
-    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A527" s="7">
         <v>38087</v>
       </c>
@@ -25330,7 +25334,7 @@
         <v>0.56052216033966962</v>
       </c>
     </row>
-    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A528" s="7">
         <v>38087</v>
       </c>
@@ -25377,7 +25381,7 @@
         <v>0.60396675164589197</v>
       </c>
     </row>
-    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A529" s="7">
         <v>38087</v>
       </c>
@@ -25424,7 +25428,7 @@
         <v>0.65621551976739512</v>
       </c>
     </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A530" s="7">
         <v>38087</v>
       </c>
@@ -25471,7 +25475,7 @@
         <v>0.63715327650805842</v>
       </c>
     </row>
-    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A531" s="7">
         <v>38087</v>
       </c>
@@ -25518,7 +25522,7 @@
         <v>0.69292417282436236</v>
       </c>
     </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A532" s="7">
         <v>38087</v>
       </c>
@@ -25565,7 +25569,7 @@
         <v>0.75771877861847303</v>
       </c>
     </row>
-    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A533" s="7">
         <v>38087</v>
       </c>
@@ -25612,7 +25616,7 @@
         <v>0.7916110940672102</v>
       </c>
     </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A534" s="7">
         <v>38087</v>
       </c>
@@ -25659,7 +25663,7 @@
         <v>0.78326639737831061</v>
       </c>
     </row>
-    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A535" s="7">
         <v>38088</v>
       </c>
@@ -25706,7 +25710,7 @@
         <v>0.74686095898454108</v>
       </c>
     </row>
-    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A536" s="7">
         <v>38088</v>
       </c>
@@ -25753,7 +25757,7 @@
         <v>0.74180435682137691</v>
       </c>
     </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A537" s="7">
         <v>38088</v>
       </c>
@@ -25800,7 +25804,7 @@
         <v>0.75309810347773409</v>
       </c>
     </row>
-    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A538" s="7">
         <v>38088</v>
       </c>
@@ -25847,7 +25851,7 @@
         <v>0.74632163669659157</v>
       </c>
     </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A539" s="7">
         <v>38088</v>
       </c>
@@ -25894,7 +25898,7 @@
         <v>0.73464993265298906</v>
       </c>
     </row>
-    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A540" s="7">
         <v>38088</v>
       </c>
@@ -25941,7 +25945,7 @@
         <v>0.72829181125381226</v>
       </c>
     </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A541" s="7">
         <v>38088</v>
       </c>
@@ -25988,7 +25992,7 @@
         <v>0.72666393355606385</v>
       </c>
     </row>
-    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A542" s="7">
         <v>38088</v>
       </c>
@@ -26505,7 +26509,7 @@
         <v>0.65322524616562871</v>
       </c>
     </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A553" s="7">
         <v>38088</v>
       </c>
@@ -26552,7 +26556,7 @@
         <v>0.65751359462647496</v>
       </c>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A554" s="7">
         <v>38088</v>
       </c>
@@ -26599,7 +26603,7 @@
         <v>0.64377821350315656</v>
       </c>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A555" s="7">
         <v>38088</v>
       </c>
@@ -26646,7 +26650,7 @@
         <v>0.6427578918712219</v>
       </c>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A556" s="7">
         <v>38088</v>
       </c>
@@ -26693,7 +26697,7 @@
         <v>0.61631489282321605</v>
       </c>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A557" s="7">
         <v>38089</v>
       </c>
@@ -26740,7 +26744,7 @@
         <v>0.59569881961348403</v>
       </c>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A558" s="7">
         <v>38089</v>
       </c>
@@ -26787,7 +26791,7 @@
         <v>0.54420765492276424</v>
       </c>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A559" s="7">
         <v>38089</v>
       </c>
@@ -26834,7 +26838,7 @@
         <v>0.5604704917205382</v>
       </c>
     </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A560" s="7">
         <v>38089</v>
       </c>
@@ -26881,7 +26885,7 @@
         <v>0.48676227352119056</v>
       </c>
     </row>
-    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A561" s="7">
         <v>38089</v>
       </c>
@@ -26928,7 +26932,7 @@
         <v>0.58517548766064775</v>
       </c>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A562" s="7">
         <v>38089</v>
       </c>
@@ -26975,7 +26979,7 @@
         <v>0.68714737505321211</v>
       </c>
     </row>
-    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A563" s="7">
         <v>38089</v>
       </c>
@@ -27022,7 +27026,7 @@
         <v>0.7705670405847741</v>
       </c>
     </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A564" s="7">
         <v>38089</v>
       </c>
@@ -27069,7 +27073,7 @@
         <v>0.81690893657127961</v>
       </c>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A565" s="7">
         <v>38089</v>
       </c>
@@ -27116,7 +27120,7 @@
         <v>0.8575746802941473</v>
       </c>
     </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A566" s="7">
         <v>38089</v>
       </c>
@@ -27163,7 +27167,7 @@
         <v>0.88600334731706254</v>
       </c>
     </row>
-    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A567" s="7">
         <v>38089</v>
       </c>
@@ -27210,7 +27214,7 @@
         <v>0.91726265510597704</v>
       </c>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A568" s="7">
         <v>38089</v>
       </c>
@@ -27257,7 +27261,7 @@
         <v>0.85049442234951689</v>
       </c>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A569" s="7">
         <v>38089</v>
       </c>
@@ -27304,7 +27308,7 @@
         <v>0.85373342957326781</v>
       </c>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A570" s="7">
         <v>38089</v>
       </c>
@@ -27351,7 +27355,7 @@
         <v>0.87031278541061885</v>
       </c>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A571" s="7">
         <v>38089</v>
       </c>
@@ -27398,7 +27402,7 @@
         <v>0.82356758329972646</v>
       </c>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A572" s="7">
         <v>38089</v>
       </c>
@@ -27445,7 +27449,7 @@
         <v>0.85811490258780665</v>
       </c>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A573" s="7">
         <v>38089</v>
       </c>
@@ -27492,7 +27496,7 @@
         <v>0.8151062271297842</v>
       </c>
     </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A574" s="7">
         <v>38089</v>
       </c>
@@ -27539,7 +27543,7 @@
         <v>0.77136187926484867</v>
       </c>
     </row>
-    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A575" s="7">
         <v>38089</v>
       </c>
@@ -27586,7 +27590,7 @@
         <v>0.75945465896250408</v>
       </c>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A576" s="7">
         <v>38089</v>
       </c>
@@ -27633,7 +27637,7 @@
         <v>0.73621675659843722</v>
       </c>
     </row>
-    <row r="577" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="577" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A577" s="30">
         <v>38089</v>
       </c>
@@ -27680,7 +27684,7 @@
         <v>0.71485403334897102</v>
       </c>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A578" s="7">
         <v>38089</v>
       </c>
@@ -27727,7 +27731,7 @@
         <v>0.72387578852724266</v>
       </c>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A579" s="7">
         <v>38089</v>
       </c>
@@ -27774,7 +27778,7 @@
         <v>0.7351639523669441</v>
       </c>
     </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A580" s="7">
         <v>38090</v>
       </c>
@@ -27821,7 +27825,7 @@
         <v>0.74591454140162183</v>
       </c>
     </row>
-    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A581" s="7">
         <v>38090</v>
       </c>
@@ -27868,7 +27872,7 @@
         <v>0.76239303931360203</v>
       </c>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A582" s="7">
         <v>38090</v>
       </c>
@@ -27915,7 +27919,7 @@
         <v>0.77039086983651006</v>
       </c>
     </row>
-    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A583" s="7">
         <v>38090</v>
       </c>
@@ -27962,7 +27966,7 @@
         <v>0.79253494110964162</v>
       </c>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A584" s="7">
         <v>38090</v>
       </c>
@@ -28009,7 +28013,7 @@
         <v>0.84431955521453617</v>
       </c>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A585" s="7">
         <v>38090</v>
       </c>
@@ -28056,7 +28060,7 @@
         <v>0.84555845404541319</v>
       </c>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A586" s="7">
         <v>38090</v>
       </c>
@@ -28103,7 +28107,7 @@
         <v>0.83976010298811554</v>
       </c>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A587" s="7">
         <v>38090</v>
       </c>
@@ -28150,7 +28154,7 @@
         <v>0.81377307623022499</v>
       </c>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A588" s="7">
         <v>38090</v>
       </c>
@@ -28197,7 +28201,7 @@
         <v>0.76434025390528437</v>
       </c>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A589" s="7">
         <v>38090</v>
       </c>
@@ -28244,7 +28248,7 @@
         <v>0.73870477306011495</v>
       </c>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A590" s="7">
         <v>38090</v>
       </c>
@@ -28291,7 +28295,7 @@
         <v>0.74354094248514746</v>
       </c>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A591" s="7">
         <v>38090</v>
       </c>
@@ -28338,7 +28342,7 @@
         <v>0.72936404318694459</v>
       </c>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A592" s="7">
         <v>38090</v>
       </c>
@@ -28385,7 +28389,7 @@
         <v>0.70056168528027107</v>
       </c>
     </row>
-    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A593" s="7">
         <v>38090</v>
       </c>
@@ -28432,7 +28436,7 @@
         <v>0.68671635495074745</v>
       </c>
     </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A594" s="7">
         <v>38090</v>
       </c>
@@ -28479,7 +28483,7 @@
         <v>0.72413343584895606</v>
       </c>
     </row>
-    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A595" s="7">
         <v>38090</v>
       </c>
@@ -28526,7 +28530,7 @@
         <v>0.77120454783252135</v>
       </c>
     </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A596" s="7">
         <v>38090</v>
       </c>
@@ -28573,7 +28577,7 @@
         <v>0.77827874124086938</v>
       </c>
     </row>
-    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A597" s="7">
         <v>38090</v>
       </c>
@@ -28620,7 +28624,7 @@
         <v>0.80743721297645121</v>
       </c>
     </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A598" s="7">
         <v>38090</v>
       </c>
@@ -28667,7 +28671,7 @@
         <v>0.7815077994652585</v>
       </c>
     </row>
-    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A599" s="7">
         <v>38090</v>
       </c>
@@ -28714,7 +28718,7 @@
         <v>0.79310262956536526</v>
       </c>
     </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A600" s="7">
         <v>38090</v>
       </c>
@@ -28761,7 +28765,7 @@
         <v>0.83513838128786921</v>
       </c>
     </row>
-    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A601" s="7">
         <v>38090</v>
       </c>
@@ -28808,7 +28812,7 @@
         <v>0.84610383275724221</v>
       </c>
     </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A602" s="7">
         <v>38090</v>
       </c>
@@ -28855,7 +28859,7 @@
         <v>0.85103712149105171</v>
       </c>
     </row>
-    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A603" s="7">
         <v>38091</v>
       </c>
@@ -28902,7 +28906,7 @@
         <v>0.83028905077957083</v>
       </c>
     </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A604" s="7">
         <v>38091</v>
       </c>
@@ -28949,7 +28953,7 @@
         <v>0.83951528459475655</v>
       </c>
     </row>
-    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A605" s="7">
         <v>38091</v>
       </c>
@@ -28996,7 +29000,7 @@
         <v>0.8330511158681938</v>
       </c>
     </row>
-    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A606" s="7">
         <v>38091</v>
       </c>
@@ -29043,7 +29047,7 @@
         <v>0.819613439499703</v>
       </c>
     </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A607" s="7">
         <v>38091</v>
       </c>
@@ -29090,7 +29094,7 @@
         <v>0.82247975286725883</v>
       </c>
     </row>
-    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A608" s="7">
         <v>38091</v>
       </c>
@@ -29137,7 +29141,7 @@
         <v>0.83068387943916877</v>
       </c>
     </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A609" s="7">
         <v>38091</v>
       </c>
@@ -29184,7 +29188,7 @@
         <v>0.84526132105859964</v>
       </c>
     </row>
-    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A610" s="7">
         <v>38091</v>
       </c>
@@ -29231,7 +29235,7 @@
         <v>0.83283873583223089</v>
       </c>
     </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A611" s="7">
         <v>38091</v>
       </c>
@@ -29278,7 +29282,7 @@
         <v>0.77382701071244009</v>
       </c>
     </row>
-    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A612" s="7">
         <v>38091</v>
       </c>
@@ -29325,7 +29329,7 @@
         <v>0.74499420869467203</v>
       </c>
     </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A613" s="7">
         <v>38091</v>
       </c>
@@ -29372,7 +29376,7 @@
         <v>0.718456162923375</v>
       </c>
     </row>
-    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A614" s="7">
         <v>38092</v>
       </c>
@@ -29419,7 +29423,7 @@
         <v>0.81962748749310033</v>
       </c>
     </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A615" s="7">
         <v>38092</v>
       </c>
@@ -29466,7 +29470,7 @@
         <v>0.83636862904286746</v>
       </c>
     </row>
-    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A616" s="7">
         <v>38092</v>
       </c>
@@ -29513,7 +29517,7 @@
         <v>0.81196231800113805</v>
       </c>
     </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A617" s="7">
         <v>38092</v>
       </c>
@@ -29560,7 +29564,7 @@
         <v>0.77580717456138681</v>
       </c>
     </row>
-    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A618" s="7">
         <v>38092</v>
       </c>
@@ -29607,7 +29611,7 @@
         <v>0.78241259145769115</v>
       </c>
     </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A619" s="7">
         <v>38092</v>
       </c>
@@ -29654,7 +29658,7 @@
         <v>0.78255900449146265</v>
       </c>
     </row>
-    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A620" s="7">
         <v>38092</v>
       </c>
@@ -29701,7 +29705,7 @@
         <v>0.7676936711072988</v>
       </c>
     </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A621" s="7">
         <v>38092</v>
       </c>
@@ -29748,7 +29752,7 @@
         <v>0.78070853321817735</v>
       </c>
     </row>
-    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A622" s="7">
         <v>38092</v>
       </c>
@@ -29795,7 +29799,7 @@
         <v>0.80165058282305879</v>
       </c>
     </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A623" s="7">
         <v>38092</v>
       </c>
@@ -29842,7 +29846,7 @@
         <v>0.9182512323376868</v>
       </c>
     </row>
-    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A624" s="7">
         <v>38092</v>
       </c>
@@ -29889,7 +29893,7 @@
         <v>0.93920595306357446</v>
       </c>
     </row>
-    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A625" s="7">
         <v>38092</v>
       </c>
@@ -29936,7 +29940,7 @@
         <v>0.94456339323365934</v>
       </c>
     </row>
-    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A626" s="7">
         <v>38092</v>
       </c>
@@ -29983,7 +29987,7 @@
         <v>0.97234631729216592</v>
       </c>
     </row>
-    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A627" s="7">
         <v>38092</v>
       </c>
@@ -30030,7 +30034,7 @@
         <v>0.99281737504481726</v>
       </c>
     </row>
-    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A628" s="7">
         <v>38092</v>
       </c>
@@ -30077,7 +30081,7 @@
         <v>1.0130378140898495</v>
       </c>
     </row>
-    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A629" s="7">
         <v>38093</v>
       </c>
@@ -30124,7 +30128,7 @@
         <v>1.0410223808857835</v>
       </c>
     </row>
-    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A630" s="7">
         <v>38093</v>
       </c>
@@ -30171,7 +30175,7 @@
         <v>1.0687788772389279</v>
       </c>
     </row>
-    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A631" s="7">
         <v>38093</v>
       </c>
@@ -30218,7 +30222,7 @@
         <v>1.0631995473827536</v>
       </c>
     </row>
-    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A632" s="7">
         <v>38093</v>
       </c>
@@ -30265,7 +30269,7 @@
         <v>1.0380226469521954</v>
       </c>
     </row>
-    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A633" s="7">
         <v>38093</v>
       </c>
@@ -30312,7 +30316,7 @@
         <v>1.0415276221461061</v>
       </c>
     </row>
-    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A634" s="7">
         <v>38093</v>
       </c>
@@ -30359,7 +30363,7 @@
         <v>1.0325136027224888</v>
       </c>
     </row>
-    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A635" s="7">
         <v>38093</v>
       </c>
@@ -30406,7 +30410,7 @@
         <v>1.0428119031822976</v>
       </c>
     </row>
-    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A636" s="7">
         <v>38093</v>
       </c>
@@ -30453,7 +30457,7 @@
         <v>0.95945830611151217</v>
       </c>
     </row>
-    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A637" s="7">
         <v>38093</v>
       </c>
@@ -30500,7 +30504,7 @@
         <v>0.88859052922550841</v>
       </c>
     </row>
-    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A638" s="7">
         <v>38093</v>
       </c>
@@ -30547,7 +30551,7 @@
         <v>0.91457941126849296</v>
       </c>
     </row>
-    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A639" s="7">
         <v>38093</v>
       </c>
@@ -30594,7 +30598,7 @@
         <v>0.93244049045351329</v>
       </c>
     </row>
-    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A640" s="7">
         <v>38093</v>
       </c>
@@ -30641,7 +30645,7 @@
         <v>0.94253929733042474</v>
       </c>
     </row>
-    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A641" s="7">
         <v>38093</v>
       </c>
@@ -30688,7 +30692,7 @@
         <v>1.1091811926911568</v>
       </c>
     </row>
-    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A642" s="7">
         <v>38093</v>
       </c>
@@ -30735,7 +30739,7 @@
         <v>1.2424502095944709</v>
       </c>
     </row>
-    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A643" s="7">
         <v>38093</v>
       </c>
@@ -30782,7 +30786,7 @@
         <v>1.2654048964232767</v>
       </c>
     </row>
-    <row r="644" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="644" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A644" s="30">
         <v>38093</v>
       </c>
@@ -30829,7 +30833,7 @@
         <v>1.2391028608801187</v>
       </c>
     </row>
-    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A645" s="7">
         <v>38093</v>
       </c>
@@ -30876,7 +30880,7 @@
         <v>1.257306696557672</v>
       </c>
     </row>
-    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A646" s="7">
         <v>38093</v>
       </c>
@@ -30923,7 +30927,7 @@
         <v>1.216587393481297</v>
       </c>
     </row>
-    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A647" s="7">
         <v>38093</v>
       </c>
@@ -30970,7 +30974,7 @@
         <v>1.2303172769585382</v>
       </c>
     </row>
-    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A648" s="7">
         <v>38093</v>
       </c>
@@ -31017,7 +31021,7 @@
         <v>1.222888856820215</v>
       </c>
     </row>
-    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A649" s="7">
         <v>38093</v>
       </c>
@@ -31064,7 +31068,7 @@
         <v>1.2224008181061226</v>
       </c>
     </row>
-    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A650" s="7">
         <v>38093</v>
       </c>
@@ -31111,7 +31115,7 @@
         <v>1.2015897457661129</v>
       </c>
     </row>
-    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A651" s="7">
         <v>38093</v>
       </c>
@@ -31158,7 +31162,7 @@
         <v>1.1915472720137008</v>
       </c>
     </row>
-    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A652" s="7">
         <v>38094</v>
       </c>
@@ -31205,7 +31209,7 @@
         <v>1.181862227181663</v>
       </c>
     </row>
-    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A653" s="7">
         <v>38094</v>
       </c>
@@ -31252,7 +31256,7 @@
         <v>1.1837638563882131</v>
       </c>
     </row>
-    <row r="654" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="654" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A654" s="30">
         <v>38094</v>
       </c>
@@ -31299,7 +31303,7 @@
         <v>1.1849315050835767</v>
       </c>
     </row>
-    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A655" s="7">
         <v>38100</v>
       </c>
@@ -31346,7 +31350,7 @@
         <v>0.84125424124279147</v>
       </c>
     </row>
-    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A656" s="7">
         <v>38100</v>
       </c>
@@ -31393,7 +31397,7 @@
         <v>0.90032958573493582</v>
       </c>
     </row>
-    <row r="657" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A657" s="7">
         <v>38100</v>
       </c>
@@ -31440,7 +31444,7 @@
         <v>0.92020079756820983</v>
       </c>
     </row>
-    <row r="658" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A658" s="7">
         <v>38100</v>
       </c>
@@ -31487,7 +31491,7 @@
         <v>0.92885782854752963</v>
       </c>
     </row>
-    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A659" s="7">
         <v>38100</v>
       </c>
@@ -31534,7 +31538,7 @@
         <v>0.9232729005031266</v>
       </c>
     </row>
-    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A660" s="7">
         <v>38100</v>
       </c>
@@ -31581,7 +31585,7 @@
         <v>0.8968243276782295</v>
       </c>
     </row>
-    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A661" s="7">
         <v>38100</v>
       </c>
@@ -31628,7 +31632,7 @@
         <v>0.8942068252110229</v>
       </c>
     </row>
-    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A662" s="7">
         <v>38100</v>
       </c>
@@ -31675,7 +31679,7 @@
         <v>0.84775699667783788</v>
       </c>
     </row>
-    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A663" s="7">
         <v>38100</v>
       </c>
@@ -31722,7 +31726,7 @@
         <v>0.8572791041714124</v>
       </c>
     </row>
-    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A664" s="7">
         <v>38100</v>
       </c>
@@ -31769,7 +31773,7 @@
         <v>0.81809176035859066</v>
       </c>
     </row>
-    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A665" s="7">
         <v>38100</v>
       </c>
@@ -31816,7 +31820,7 @@
         <v>0.8100460144089966</v>
       </c>
     </row>
-    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A666" s="7">
         <v>38100</v>
       </c>
@@ -31863,7 +31867,7 @@
         <v>0.81356818423770649</v>
       </c>
     </row>
-    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A667" s="7">
         <v>38100</v>
       </c>
@@ -31910,7 +31914,7 @@
         <v>0.94025513772782265</v>
       </c>
     </row>
-    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A668" s="7">
         <v>38100</v>
       </c>
@@ -31957,7 +31961,7 @@
         <v>0.95397537207040306</v>
       </c>
     </row>
-    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A669" s="7">
         <v>38100</v>
       </c>
@@ -32004,7 +32008,7 @@
         <v>1.0243561318064727</v>
       </c>
     </row>
-    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A670" s="7">
         <v>38100</v>
       </c>
@@ -32051,7 +32055,7 @@
         <v>1.0332878296964312</v>
       </c>
     </row>
-    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A671" s="7">
         <v>38100</v>
       </c>
@@ -32098,7 +32102,7 @@
         <v>0.98640008151343095</v>
       </c>
     </row>
-    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A672" s="7">
         <v>38100</v>
       </c>
@@ -32145,7 +32149,7 @@
         <v>0.98753941913091003</v>
       </c>
     </row>
-    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A673" s="7">
         <v>38100</v>
       </c>
@@ -32192,7 +32196,7 @@
         <v>1.0221427829620098</v>
       </c>
     </row>
-    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A674" s="7">
         <v>38101</v>
       </c>
@@ -32239,7 +32243,7 @@
         <v>1.0283812633306353</v>
       </c>
     </row>
-    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A675" s="7">
         <v>38101</v>
       </c>
@@ -32286,7 +32290,7 @@
         <v>1.0450950580504039</v>
       </c>
     </row>
-    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A676" s="7">
         <v>38101</v>
       </c>
@@ -32333,7 +32337,7 @@
         <v>1.0177596562947409</v>
       </c>
     </row>
-    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A677" s="7">
         <v>38101</v>
       </c>
@@ -32380,7 +32384,7 @@
         <v>0.96441345601821826</v>
       </c>
     </row>
-    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A678" s="7">
         <v>38101</v>
       </c>
@@ -32427,7 +32431,7 @@
         <v>0.94989777652540763</v>
       </c>
     </row>
-    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A679" s="7">
         <v>38101</v>
       </c>
@@ -32474,7 +32478,7 @@
         <v>0.93849140375459805</v>
       </c>
     </row>
-    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A680" s="7">
         <v>38101</v>
       </c>
@@ -32521,7 +32525,7 @@
         <v>0.9787538224321507</v>
       </c>
     </row>
-    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A681" s="7">
         <v>38101</v>
       </c>
@@ -32568,7 +32572,7 @@
         <v>1.0390344801482154</v>
       </c>
     </row>
-    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A682" s="7">
         <v>38101</v>
       </c>
@@ -32615,7 +32619,7 @@
         <v>0.9837464246031371</v>
       </c>
     </row>
-    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A683" s="7">
         <v>38101</v>
       </c>
@@ -32662,7 +32666,7 @@
         <v>1.020949689011369</v>
       </c>
     </row>
-    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A684" s="7">
         <v>38101</v>
       </c>
@@ -32709,7 +32713,7 @@
         <v>1.1493441219809502</v>
       </c>
     </row>
-    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A685" s="7">
         <v>38101</v>
       </c>
@@ -32756,7 +32760,7 @@
         <v>1.1217137840877998</v>
       </c>
     </row>
-    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A686" s="7">
         <v>38101</v>
       </c>
@@ -32803,7 +32807,7 @@
         <v>1.2560621443065838</v>
       </c>
     </row>
-    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A687" s="7">
         <v>38101</v>
       </c>
@@ -32850,7 +32854,7 @@
         <v>1.1628860197547655</v>
       </c>
     </row>
-    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A688" s="7">
         <v>38101</v>
       </c>
@@ -32897,7 +32901,7 @@
         <v>1.1175955463051759</v>
       </c>
     </row>
-    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A689" s="7">
         <v>38101</v>
       </c>
@@ -32944,7 +32948,7 @@
         <v>1.1417004803952762</v>
       </c>
     </row>
-    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A690" s="7">
         <v>38101</v>
       </c>
@@ -32991,7 +32995,7 @@
         <v>1.183757211430434</v>
       </c>
     </row>
-    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A691" s="7">
         <v>38101</v>
       </c>
@@ -33038,7 +33042,7 @@
         <v>1.1276348445850977</v>
       </c>
     </row>
-    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A692" s="7">
         <v>38101</v>
       </c>
@@ -33085,7 +33089,7 @@
         <v>1.2631277274301109</v>
       </c>
     </row>
-    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A693" s="7">
         <v>38101</v>
       </c>
@@ -33132,7 +33136,7 @@
         <v>1.2952523673543626</v>
       </c>
     </row>
-    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A694" s="7">
         <v>38101</v>
       </c>
@@ -33179,7 +33183,7 @@
         <v>1.1773512963252348</v>
       </c>
     </row>
-    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A695" s="7">
         <v>38101</v>
       </c>
@@ -33226,7 +33230,7 @@
         <v>1.043601630601386</v>
       </c>
     </row>
-    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A696" s="7">
         <v>38102</v>
       </c>
@@ -33273,7 +33277,7 @@
         <v>0.94549126702275055</v>
       </c>
     </row>
-    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A697" s="7">
         <v>38102</v>
       </c>
@@ -33320,7 +33324,7 @@
         <v>0.92094840116689691</v>
       </c>
     </row>
-    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A698" s="7">
         <v>38102</v>
       </c>
@@ -33367,7 +33371,7 @@
         <v>0.86046900635351808</v>
       </c>
     </row>
-    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A699" s="7">
         <v>38102</v>
       </c>
@@ -33414,7 +33418,7 @@
         <v>0.73459041673640491</v>
       </c>
     </row>
-    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A700" s="7">
         <v>38102</v>
       </c>
@@ -33461,7 +33465,7 @@
         <v>0.72850227550331725</v>
       </c>
     </row>
-    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A701" s="7">
         <v>38102</v>
       </c>
@@ -33508,7 +33512,7 @@
         <v>0.74869158597195862</v>
       </c>
     </row>
-    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A702" s="7">
         <v>38102</v>
       </c>
@@ -33555,7 +33559,7 @@
         <v>0.74763959255385293</v>
       </c>
     </row>
-    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A703" s="7">
         <v>38102</v>
       </c>
@@ -33602,7 +33606,7 @@
         <v>0.74867757554472358</v>
       </c>
     </row>
-    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A704" s="7">
         <v>38102</v>
       </c>
@@ -33649,7 +33653,7 @@
         <v>0.72359237496154871</v>
       </c>
     </row>
-    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A705" s="7">
         <v>38102</v>
       </c>
@@ -33696,7 +33700,7 @@
         <v>0.67893286813655807</v>
       </c>
     </row>
-    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A706" s="7">
         <v>38102</v>
       </c>
@@ -33743,7 +33747,7 @@
         <v>0.66831743407801203</v>
       </c>
     </row>
-    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A707" s="7">
         <v>38102</v>
       </c>
@@ -33790,7 +33794,7 @@
         <v>0.62339943086893412</v>
       </c>
     </row>
-    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A708" s="7">
         <v>38102</v>
       </c>
@@ -33837,7 +33841,7 @@
         <v>0.56746905362686995</v>
       </c>
     </row>
-    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A709" s="7">
         <v>38102</v>
       </c>
@@ -33884,7 +33888,7 @@
         <v>0.57375225341253511</v>
       </c>
     </row>
-    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A710" s="7">
         <v>38102</v>
       </c>
@@ -33931,7 +33935,7 @@
         <v>0.56302417229330837</v>
       </c>
     </row>
-    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A711" s="7">
         <v>38102</v>
       </c>
@@ -33978,7 +33982,7 @@
         <v>0.56245293625668424</v>
       </c>
     </row>
-    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A712" s="7">
         <v>38102</v>
       </c>
@@ -34025,7 +34029,7 @@
         <v>0.58433364212455807</v>
       </c>
     </row>
-    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A713" s="7">
         <v>38102</v>
       </c>
@@ -34072,7 +34076,7 @@
         <v>0.61293316680710508</v>
       </c>
     </row>
-    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A714" s="7">
         <v>38102</v>
       </c>
@@ -34119,7 +34123,7 @@
         <v>0.63525939896699823</v>
       </c>
     </row>
-    <row r="715" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A715" s="7">
         <v>38102</v>
       </c>
@@ -34166,7 +34170,7 @@
         <v>0.6446648210741559</v>
       </c>
     </row>
-    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A716" s="7">
         <v>38102</v>
       </c>
@@ -34213,7 +34217,7 @@
         <v>0.65951012330190417</v>
       </c>
     </row>
-    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A717" s="7">
         <v>38102</v>
       </c>
@@ -34260,7 +34264,7 @@
         <v>0.689566012736336</v>
       </c>
     </row>
-    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A718" s="7">
         <v>38103</v>
       </c>
@@ -34307,7 +34311,7 @@
         <v>0.72062012326653468</v>
       </c>
     </row>
-    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A719" s="7">
         <v>38103</v>
       </c>
@@ -34354,7 +34358,7 @@
         <v>0.73328564894171777</v>
       </c>
     </row>
-    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A720" s="7">
         <v>38103</v>
       </c>
@@ -34401,7 +34405,7 @@
         <v>0.7246765108538018</v>
       </c>
     </row>
-    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A721" s="7">
         <v>38103</v>
       </c>
@@ -34448,7 +34452,7 @@
         <v>0.69227534802787538</v>
       </c>
     </row>
-    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A722" s="7">
         <v>38103</v>
       </c>
@@ -34495,7 +34499,7 @@
         <v>0.69590680322653764</v>
       </c>
     </row>
-    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A723" s="7">
         <v>38103</v>
       </c>
@@ -34542,7 +34546,7 @@
         <v>0.71130477656772384</v>
       </c>
     </row>
-    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A724" s="7">
         <v>38103</v>
       </c>
@@ -34589,7 +34593,7 @@
         <v>0.70933921933906297</v>
       </c>
     </row>
-    <row r="725" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A725" s="7">
         <v>38103</v>
       </c>
@@ -34636,7 +34640,7 @@
         <v>0.70515253957069057</v>
       </c>
     </row>
-    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A726" s="7">
         <v>38103</v>
       </c>
@@ -34683,7 +34687,7 @@
         <v>0.67595630863047007</v>
       </c>
     </row>
-    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A727" s="7">
         <v>38103</v>
       </c>
@@ -34730,7 +34734,7 @@
         <v>0.68207457620004219</v>
       </c>
     </row>
-    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A728" s="7">
         <v>38103</v>
       </c>
@@ -34777,7 +34781,7 @@
         <v>0.69677956145688524</v>
       </c>
     </row>
-    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A729" s="7">
         <v>38103</v>
       </c>
@@ -34824,7 +34828,7 @@
         <v>0.71756430960657047</v>
       </c>
     </row>
-    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A730" s="7">
         <v>38103</v>
       </c>
@@ -34871,7 +34875,7 @@
         <v>0.73959384371042125</v>
       </c>
     </row>
-    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A731" s="7">
         <v>38103</v>
       </c>
@@ -34918,7 +34922,7 @@
         <v>0.76024341961064734</v>
       </c>
     </row>
-    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A732" s="7">
         <v>38103</v>
       </c>
@@ -34965,7 +34969,7 @@
         <v>0.75445446324717813</v>
       </c>
     </row>
-    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A733" s="7">
         <v>38103</v>
       </c>
@@ -35012,7 +35016,7 @@
         <v>0.75351397236361761</v>
       </c>
     </row>
-    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A734" s="7">
         <v>38103</v>
       </c>
@@ -35059,7 +35063,7 @@
         <v>0.75013386641080326</v>
       </c>
     </row>
-    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A735" s="7">
         <v>38103</v>
       </c>
@@ -35106,7 +35110,7 @@
         <v>0.75682605377555545</v>
       </c>
     </row>
-    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A736" s="7">
         <v>38103</v>
       </c>
@@ -35153,7 +35157,7 @@
         <v>0.75843124846735344</v>
       </c>
     </row>
-    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A737" s="7">
         <v>38103</v>
       </c>
@@ -35200,7 +35204,7 @@
         <v>0.75961258699877576</v>
       </c>
     </row>
-    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A738" s="7">
         <v>38103</v>
       </c>
@@ -35247,7 +35251,7 @@
         <v>0.75419091670811078</v>
       </c>
     </row>
-    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A739" s="7">
         <v>38103</v>
       </c>
@@ -35294,7 +35298,7 @@
         <v>0.74868071666673108</v>
       </c>
     </row>
-    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A740" s="7">
         <v>38104</v>
       </c>
@@ -35811,7 +35815,7 @@
         <v>0.77846738815812289</v>
       </c>
     </row>
-    <row r="751" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A751" s="7">
         <v>38104</v>
       </c>
@@ -35858,7 +35862,7 @@
         <v>0.76773282978303636</v>
       </c>
     </row>
-    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A752" s="7">
         <v>38104</v>
       </c>
@@ -35905,7 +35909,7 @@
         <v>0.77330809891916952</v>
       </c>
     </row>
-    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A753" s="7">
         <v>38104</v>
       </c>
@@ -35952,7 +35956,7 @@
         <v>0.77372147184441376</v>
       </c>
     </row>
-    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A754" s="7">
         <v>38104</v>
       </c>
@@ -35999,7 +36003,7 @@
         <v>0.78112426663900392</v>
       </c>
     </row>
-    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A755" s="7">
         <v>38104</v>
       </c>
@@ -36046,7 +36050,7 @@
         <v>0.78600730996550006</v>
       </c>
     </row>
-    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A756" s="7">
         <v>38104</v>
       </c>
@@ -36093,7 +36097,7 @@
         <v>0.84332625423770491</v>
       </c>
     </row>
-    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A757" s="7">
         <v>38104</v>
       </c>
@@ -36140,7 +36144,7 @@
         <v>0.87178414886085243</v>
       </c>
     </row>
-    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A758" s="7">
         <v>38104</v>
       </c>
@@ -36187,7 +36191,7 @@
         <v>0.87462066690644769</v>
       </c>
     </row>
-    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A759" s="7">
         <v>38104</v>
       </c>
@@ -36234,7 +36238,7 @@
         <v>0.86746912110870544</v>
       </c>
     </row>
-    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A760" s="7">
         <v>38104</v>
       </c>
@@ -36281,7 +36285,7 @@
         <v>0.8770756368123217</v>
       </c>
     </row>
-    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A761" s="7">
         <v>38104</v>
       </c>
@@ -36328,7 +36332,7 @@
         <v>0.88396876416196546</v>
       </c>
     </row>
-    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A762" s="7">
         <v>38105</v>
       </c>
@@ -36375,7 +36379,7 @@
         <v>0.91117731701197802</v>
       </c>
     </row>
-    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A763" s="7">
         <v>38105</v>
       </c>
@@ -36422,7 +36426,7 @@
         <v>0.91864993242347359</v>
       </c>
     </row>
-    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A764" s="7">
         <v>38105</v>
       </c>
@@ -36469,7 +36473,7 @@
         <v>0.93306257441877261</v>
       </c>
     </row>
-    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A765" s="7">
         <v>38105</v>
       </c>
@@ -36516,7 +36520,7 @@
         <v>0.97216768408288035</v>
       </c>
     </row>
-    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A766" s="7">
         <v>38105</v>
       </c>
@@ -36563,7 +36567,7 @@
         <v>0.95966861008594073</v>
       </c>
     </row>
-    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A767" s="7">
         <v>38105</v>
       </c>
@@ -36610,7 +36614,7 @@
         <v>0.98756740413025057</v>
       </c>
     </row>
-    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A768" s="7">
         <v>38105</v>
       </c>
@@ -36657,7 +36661,7 @@
         <v>0.99597833886973353</v>
       </c>
     </row>
-    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A769" s="7">
         <v>38105</v>
       </c>
@@ -36704,7 +36708,7 @@
         <v>1.0248114183731789</v>
       </c>
     </row>
-    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A770" s="7">
         <v>38105</v>
       </c>
@@ -36751,7 +36755,7 @@
         <v>1.0096508428997506</v>
       </c>
     </row>
-    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A771" s="7">
         <v>38105</v>
       </c>
@@ -36798,7 +36802,7 @@
         <v>0.98950434598832104</v>
       </c>
     </row>
-    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A772" s="7">
         <v>38105</v>
       </c>
@@ -36845,7 +36849,7 @@
         <v>1.0097873861920998</v>
       </c>
     </row>
-    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A773" s="7">
         <v>38105</v>
       </c>
@@ -36892,7 +36896,7 @@
         <v>1.0093561026889535</v>
       </c>
     </row>
-    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A774" s="7">
         <v>38105</v>
       </c>
@@ -36939,7 +36943,7 @@
         <v>0.96926168291491754</v>
       </c>
     </row>
-    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A775" s="7">
         <v>38105</v>
       </c>
@@ -36986,7 +36990,7 @@
         <v>0.89350815162543495</v>
       </c>
     </row>
-    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A776" s="7">
         <v>38105</v>
       </c>
@@ -37033,7 +37037,7 @@
         <v>0.99220108882238212</v>
       </c>
     </row>
-    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A777" s="7">
         <v>38105</v>
       </c>
@@ -37080,7 +37084,7 @@
         <v>1.0751950386271245</v>
       </c>
     </row>
-    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A778" s="7">
         <v>38105</v>
       </c>
@@ -37127,7 +37131,7 @@
         <v>1.1199288088642156</v>
       </c>
     </row>
-    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A779" s="7">
         <v>38105</v>
       </c>
@@ -37174,7 +37178,7 @@
         <v>1.1746123328907798</v>
       </c>
     </row>
-    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A780" s="7">
         <v>38105</v>
       </c>
@@ -37221,7 +37225,7 @@
         <v>1.1226178441823345</v>
       </c>
     </row>
-    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A781" s="7">
         <v>38105</v>
       </c>
@@ -37268,7 +37272,7 @@
         <v>1.0701576047605204</v>
       </c>
     </row>
-    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A782" s="7">
         <v>38105</v>
       </c>
@@ -37315,7 +37319,7 @@
         <v>1.1220573024878753</v>
       </c>
     </row>
-    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A783" s="7">
         <v>38105</v>
       </c>
@@ -37362,7 +37366,7 @@
         <v>1.1420469971792799</v>
       </c>
     </row>
-    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A784" s="7">
         <v>38106</v>
       </c>
@@ -37409,7 +37413,7 @@
         <v>1.0962966762681261</v>
       </c>
     </row>
-    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A785" s="7">
         <v>38106</v>
       </c>
@@ -37456,7 +37460,7 @@
         <v>1.1268757810006673</v>
       </c>
     </row>
-    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A786" s="7">
         <v>38106</v>
       </c>
@@ -37503,7 +37507,7 @@
         <v>1.0805544901035757</v>
       </c>
     </row>
-    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A787" s="7">
         <v>38106</v>
       </c>
@@ -37550,7 +37554,7 @@
         <v>1.0202793236611638</v>
       </c>
     </row>
-    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A788" s="7">
         <v>38106</v>
       </c>
@@ -37597,7 +37601,7 @@
         <v>0.98461372163068805</v>
       </c>
     </row>
-    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A789" s="7">
         <v>38106</v>
       </c>
@@ -37644,7 +37648,7 @@
         <v>1.0237234240208</v>
       </c>
     </row>
-    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A790" s="7">
         <v>38106</v>
       </c>
@@ -37691,7 +37695,7 @@
         <v>1.0273584679043728</v>
       </c>
     </row>
-    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A791" s="7">
         <v>38106</v>
       </c>
@@ -37738,7 +37742,7 @@
         <v>1.0143235315700396</v>
       </c>
     </row>
-    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A792" s="7">
         <v>38106</v>
       </c>
@@ -37785,7 +37789,7 @@
         <v>0.87713877519869288</v>
       </c>
     </row>
-    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A793" s="7">
         <v>38106</v>
       </c>
@@ -37832,7 +37836,7 @@
         <v>0.79657493141936431</v>
       </c>
     </row>
-    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A794" s="7">
         <v>38106</v>
       </c>
@@ -37879,7 +37883,7 @@
         <v>0.82337491924602191</v>
       </c>
     </row>
-    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A795" s="7">
         <v>38106</v>
       </c>
@@ -37926,7 +37930,7 @@
         <v>0.93252653413586728</v>
       </c>
     </row>
-    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A796" s="7">
         <v>38106</v>
       </c>
@@ -37973,7 +37977,7 @@
         <v>1.0160472032092285</v>
       </c>
     </row>
-    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A797" s="7">
         <v>38106</v>
       </c>
@@ -38020,7 +38024,7 @@
         <v>1.1241654272811101</v>
       </c>
     </row>
-    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A798" s="7">
         <v>38106</v>
       </c>
@@ -38067,7 +38071,7 @@
         <v>1.1175650104883064</v>
       </c>
     </row>
-    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A799" s="7">
         <v>38106</v>
       </c>
@@ -38114,7 +38118,7 @@
         <v>1.101569728162644</v>
       </c>
     </row>
-    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A800" s="7">
         <v>38106</v>
       </c>
@@ -38161,7 +38165,7 @@
         <v>1.1353643500764277</v>
       </c>
     </row>
-    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A801" s="7">
         <v>38106</v>
       </c>
@@ -38208,7 +38212,7 @@
         <v>1.1923862693264655</v>
       </c>
     </row>
-    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A802" s="7">
         <v>38106</v>
       </c>
@@ -38255,7 +38259,7 @@
         <v>1.2233420346122454</v>
       </c>
     </row>
-    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A803" s="7">
         <v>38106</v>
       </c>
@@ -38302,7 +38306,7 @@
         <v>1.21728870586828</v>
       </c>
     </row>
-    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A804" s="7">
         <v>38106</v>
       </c>
@@ -38349,7 +38353,7 @@
         <v>1.2352448991120721</v>
       </c>
     </row>
-    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A805" s="7">
         <v>38106</v>
       </c>
@@ -38396,7 +38400,7 @@
         <v>1.3554282038616814</v>
       </c>
     </row>
-    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A806" s="7">
         <v>38107</v>
       </c>
@@ -38443,7 +38447,7 @@
         <v>1.4050587107110739</v>
       </c>
     </row>
-    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A807" s="7">
         <v>38107</v>
       </c>
@@ -38490,7 +38494,7 @@
         <v>1.3943484677671674</v>
       </c>
     </row>
-    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A808" s="7">
         <v>38107</v>
       </c>
@@ -38537,7 +38541,7 @@
         <v>1.3916874832439119</v>
       </c>
     </row>
-    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A809" s="7">
         <v>38107</v>
       </c>
@@ -38584,7 +38588,7 @@
         <v>1.3193632938493325</v>
       </c>
     </row>
-    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A810" s="7">
         <v>38107</v>
       </c>
@@ -38631,7 +38635,7 @@
         <v>1.3136417232075381</v>
       </c>
     </row>
-    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A811" s="7">
         <v>38107</v>
       </c>
@@ -38678,7 +38682,7 @@
         <v>1.2736706850791155</v>
       </c>
     </row>
-    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A812" s="7">
         <v>38107</v>
       </c>
@@ -38725,7 +38729,7 @@
         <v>1.2322741844588934</v>
       </c>
     </row>
-    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A813" s="7">
         <v>38107</v>
       </c>
@@ -38772,7 +38776,7 @@
         <v>1.2944974971974041</v>
       </c>
     </row>
-    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A814" s="7">
         <v>38107</v>
       </c>
@@ -38819,7 +38823,7 @@
         <v>1.3458453405509414</v>
       </c>
     </row>
-    <row r="815" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.65">
+    <row r="815" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A815" s="30">
         <v>38107</v>
       </c>
@@ -38866,7 +38870,7 @@
         <v>1.4208637993827462</v>
       </c>
     </row>
-    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A816" s="7">
         <v>38107</v>
       </c>
@@ -38913,7 +38917,7 @@
         <v>1.4125279130664443</v>
       </c>
     </row>
-    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A817" s="7">
         <v>38107</v>
       </c>
@@ -38960,7 +38964,7 @@
         <v>1.3544602309495231</v>
       </c>
     </row>
-    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A818" s="7">
         <v>38107</v>
       </c>
@@ -39007,7 +39011,7 @@
         <v>1.2822989259862503</v>
       </c>
     </row>
-    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A819" s="7">
         <v>38107</v>
       </c>
@@ -39054,7 +39058,7 @@
         <v>1.2465484083637006</v>
       </c>
     </row>
-    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A820" s="7">
         <v>38107</v>
       </c>
@@ -39101,7 +39105,7 @@
         <v>1.4852382383230891</v>
       </c>
     </row>
-    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A821" s="7">
         <v>38107</v>
       </c>
@@ -39148,7 +39152,7 @@
         <v>1.3353278424142729</v>
       </c>
     </row>
-    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A822" s="7">
         <v>38107</v>
       </c>
@@ -39195,7 +39199,7 @@
         <v>1.3194487672820148</v>
       </c>
     </row>
-    <row r="823" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A823" s="7">
         <v>38107</v>
       </c>
@@ -39242,7 +39246,7 @@
         <v>1.3392217061321487</v>
       </c>
     </row>
-    <row r="824" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A824" s="7">
         <v>38107</v>
       </c>
@@ -39289,7 +39293,7 @@
         <v>1.3344998617192159</v>
       </c>
     </row>
-    <row r="825" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A825" s="7">
         <v>38107</v>
       </c>
@@ -39336,7 +39340,7 @@
         <v>1.3528881259062195</v>
       </c>
     </row>
-    <row r="826" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A826" s="7">
         <v>38107</v>
       </c>
@@ -39383,7 +39387,7 @@
         <v>1.357868855272095</v>
       </c>
     </row>
-    <row r="827" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A827" s="7">
         <v>38107</v>
       </c>
@@ -39430,7 +39434,7 @@
         <v>1.3422182010696533</v>
       </c>
     </row>
-    <row r="828" spans="1:15" hidden="1" x14ac:dyDescent="0.65">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A828" s="7">
         <v>38108</v>
       </c>
@@ -39478,11 +39482,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O828">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O828"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
